--- a/JupyterNotebooks/AvgHW/Alpha1F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,25 +629,25 @@
         <v>0.998946286226958</v>
       </c>
       <c r="D3">
+        <v>1.00241111816569</v>
+      </c>
+      <c r="E3">
+        <v>0.9970287281979379</v>
+      </c>
+      <c r="F3">
+        <v>0.9989062754876741</v>
+      </c>
+      <c r="G3">
+        <v>0.998889810185085</v>
+      </c>
+      <c r="H3">
         <v>1.004360085354955</v>
       </c>
-      <c r="E3">
-        <v>0.998889810185085</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
+        <v>1.004360085354955</v>
+      </c>
+      <c r="J3">
         <v>0.998946286226958</v>
-      </c>
-      <c r="G3">
-        <v>0.9970287281979379</v>
-      </c>
-      <c r="H3">
-        <v>1.00241111816569</v>
-      </c>
-      <c r="I3">
-        <v>0.9989062754876741</v>
-      </c>
-      <c r="J3">
-        <v>1.004360085354955</v>
       </c>
       <c r="K3">
         <v>0.998946286226958</v>
@@ -728,7 +680,7 @@
         <v>1.000090383936383</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,31 +688,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9979669448376046</v>
+        <v>0.9979669448376045</v>
       </c>
       <c r="D4">
+        <v>1.00465459670126</v>
+      </c>
+      <c r="E4">
+        <v>0.9942627633005213</v>
+      </c>
+      <c r="F4">
+        <v>0.9978886512659014</v>
+      </c>
+      <c r="G4">
+        <v>0.9978564328247085</v>
+      </c>
+      <c r="H4">
         <v>1.008416400787871</v>
       </c>
-      <c r="E4">
-        <v>0.9978564328247085</v>
-      </c>
-      <c r="F4">
-        <v>0.9979669448376046</v>
-      </c>
-      <c r="G4">
-        <v>0.9942627633005213</v>
-      </c>
-      <c r="H4">
-        <v>1.00465459670126</v>
-      </c>
       <c r="I4">
-        <v>0.9978886512659014</v>
+        <v>1.008416400787871</v>
       </c>
       <c r="J4">
-        <v>1.008416400787871</v>
+        <v>0.9979669448376045</v>
       </c>
       <c r="K4">
-        <v>0.9979669448376046</v>
+        <v>0.9979669448376045</v>
       </c>
       <c r="L4">
         <v>0.9978564328247085</v>
@@ -790,7 +742,7 @@
         <v>1.000174298286311</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,31 +753,31 @@
         <v>0.996093619057332</v>
       </c>
       <c r="D5">
+        <v>1.008920308934465</v>
+      </c>
+      <c r="E5">
+        <v>0.9890165345061619</v>
+      </c>
+      <c r="F5">
+        <v>0.9959531670154607</v>
+      </c>
+      <c r="G5">
+        <v>0.9958953661233009</v>
+      </c>
+      <c r="H5">
         <v>1.016135316067487</v>
       </c>
-      <c r="E5">
-        <v>0.9958953661233014</v>
-      </c>
-      <c r="F5">
+      <c r="I5">
+        <v>1.016135316067487</v>
+      </c>
+      <c r="J5">
         <v>0.996093619057332</v>
-      </c>
-      <c r="G5">
-        <v>0.9890165345061619</v>
-      </c>
-      <c r="H5">
-        <v>1.008920308934465</v>
-      </c>
-      <c r="I5">
-        <v>0.9959531670154607</v>
-      </c>
-      <c r="J5">
-        <v>1.016135316067487</v>
       </c>
       <c r="K5">
         <v>0.996093619057332</v>
       </c>
       <c r="L5">
-        <v>0.9958953661233014</v>
+        <v>0.9958953661233009</v>
       </c>
       <c r="M5">
         <v>1.006015341095394</v>
@@ -852,7 +804,7 @@
         <v>1.000335718617368</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,34 +812,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9942656575860171</v>
+        <v>0.9942656575860173</v>
       </c>
       <c r="D6">
+        <v>1.013083418963649</v>
+      </c>
+      <c r="E6">
+        <v>0.9838961571311435</v>
+      </c>
+      <c r="F6">
+        <v>0.9940642510083698</v>
+      </c>
+      <c r="G6">
+        <v>0.9939813628103544</v>
+      </c>
+      <c r="H6">
         <v>1.023668408749371</v>
       </c>
-      <c r="E6">
-        <v>0.9939813628103548</v>
-      </c>
-      <c r="F6">
-        <v>0.9942656575860171</v>
-      </c>
-      <c r="G6">
-        <v>0.9838961571311435</v>
-      </c>
-      <c r="H6">
-        <v>1.013083418963649</v>
-      </c>
       <c r="I6">
-        <v>0.9940642510083698</v>
+        <v>1.023668408749371</v>
       </c>
       <c r="J6">
-        <v>1.023668408749371</v>
+        <v>0.9942656575860173</v>
       </c>
       <c r="K6">
-        <v>0.9942656575860171</v>
+        <v>0.9942656575860173</v>
       </c>
       <c r="L6">
-        <v>0.9939813628103548</v>
+        <v>0.9939813628103544</v>
       </c>
       <c r="M6">
         <v>1.008824885779863</v>
@@ -914,7 +866,7 @@
         <v>1.000493209374817</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,25 +877,25 @@
         <v>0.9999277702567757</v>
       </c>
       <c r="D7">
+        <v>1.000155343264081</v>
+      </c>
+      <c r="E7">
+        <v>0.9998135711985767</v>
+      </c>
+      <c r="F7">
+        <v>0.9999293052182108</v>
+      </c>
+      <c r="G7">
+        <v>0.9999299374888737</v>
+      </c>
+      <c r="H7">
         <v>1.000283352287334</v>
       </c>
-      <c r="E7">
-        <v>0.9999299374888737</v>
-      </c>
-      <c r="F7">
+      <c r="I7">
+        <v>1.000283352287334</v>
+      </c>
+      <c r="J7">
         <v>0.9999277702567757</v>
-      </c>
-      <c r="G7">
-        <v>0.9998135711985766</v>
-      </c>
-      <c r="H7">
-        <v>1.000155343264081</v>
-      </c>
-      <c r="I7">
-        <v>0.9999293052182108</v>
-      </c>
-      <c r="J7">
-        <v>1.000283352287334</v>
       </c>
       <c r="K7">
         <v>0.9999277702567757</v>
@@ -976,7 +928,7 @@
         <v>1.000006546618975</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,31 +936,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998410737480095</v>
+        <v>0.9998410737480093</v>
       </c>
       <c r="D8">
+        <v>1.000348886209346</v>
+      </c>
+      <c r="E8">
+        <v>0.9995775011912766</v>
+      </c>
+      <c r="F8">
+        <v>0.9998413989133579</v>
+      </c>
+      <c r="G8">
+        <v>0.9998415333641326</v>
+      </c>
+      <c r="H8">
         <v>1.000634529798649</v>
       </c>
-      <c r="E8">
-        <v>0.9998415333641326</v>
-      </c>
-      <c r="F8">
-        <v>0.9998410737480095</v>
-      </c>
-      <c r="G8">
-        <v>0.9995775011912766</v>
-      </c>
-      <c r="H8">
-        <v>1.000348886209346</v>
-      </c>
       <c r="I8">
-        <v>0.9998413989133579</v>
+        <v>1.000634529798649</v>
       </c>
       <c r="J8">
-        <v>1.000634529798649</v>
+        <v>0.9998410737480093</v>
       </c>
       <c r="K8">
-        <v>0.9998410737480095</v>
+        <v>0.9998410737480093</v>
       </c>
       <c r="L8">
         <v>0.9998415333641326</v>
@@ -1038,7 +990,7 @@
         <v>1.000014153870795</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,25 +1001,25 @@
         <v>0.9997969370272256</v>
       </c>
       <c r="D9">
+        <v>1.000463196559484</v>
+      </c>
+      <c r="E9">
+        <v>0.9994299267982554</v>
+      </c>
+      <c r="F9">
+        <v>0.9997898535160384</v>
+      </c>
+      <c r="G9">
+        <v>0.9997869395065653</v>
+      </c>
+      <c r="H9">
         <v>1.000837966518389</v>
       </c>
-      <c r="E9">
-        <v>0.9997869395065653</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
+        <v>1.000837966518389</v>
+      </c>
+      <c r="J9">
         <v>0.9997969370272256</v>
-      </c>
-      <c r="G9">
-        <v>0.9994299267982554</v>
-      </c>
-      <c r="H9">
-        <v>1.000463196559484</v>
-      </c>
-      <c r="I9">
-        <v>0.9997898535160384</v>
-      </c>
-      <c r="J9">
-        <v>1.000837966518389</v>
       </c>
       <c r="K9">
         <v>0.9997969370272256</v>
@@ -1100,7 +1052,7 @@
         <v>1.000017469987659</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,25 +1063,25 @@
         <v>0.9995405607124725</v>
       </c>
       <c r="D10">
+        <v>1.001024631266064</v>
+      </c>
+      <c r="E10">
+        <v>0.9987507580145052</v>
+      </c>
+      <c r="F10">
+        <v>0.9995345942687403</v>
+      </c>
+      <c r="G10">
+        <v>0.9995321385687089</v>
+      </c>
+      <c r="H10">
         <v>1.001859420038145</v>
       </c>
-      <c r="E10">
-        <v>0.9995321385687089</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
+        <v>1.001859420038145</v>
+      </c>
+      <c r="J10">
         <v>0.9995405607124725</v>
-      </c>
-      <c r="G10">
-        <v>0.9987507580145052</v>
-      </c>
-      <c r="H10">
-        <v>1.001024631266064</v>
-      </c>
-      <c r="I10">
-        <v>0.9995345942687403</v>
-      </c>
-      <c r="J10">
-        <v>1.001859420038145</v>
       </c>
       <c r="K10">
         <v>0.9995405607124725</v>
@@ -1162,7 +1114,7 @@
         <v>1.000040350478106</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,25 +1125,25 @@
         <v>0.999300808436518</v>
       </c>
       <c r="D11">
+        <v>1.001618117255861</v>
+      </c>
+      <c r="E11">
+        <v>0.9979967812308826</v>
+      </c>
+      <c r="F11">
+        <v>0.9992664154666985</v>
+      </c>
+      <c r="G11">
+        <v>0.9992522628737902</v>
+      </c>
+      <c r="H11">
         <v>1.002921599007309</v>
       </c>
-      <c r="E11">
-        <v>0.9992522628737902</v>
-      </c>
-      <c r="F11">
+      <c r="I11">
+        <v>1.002921599007309</v>
+      </c>
+      <c r="J11">
         <v>0.999300808436518</v>
-      </c>
-      <c r="G11">
-        <v>0.9979967812308826</v>
-      </c>
-      <c r="H11">
-        <v>1.001618117255861</v>
-      </c>
-      <c r="I11">
-        <v>0.9992664154666985</v>
-      </c>
-      <c r="J11">
-        <v>1.002921599007309</v>
       </c>
       <c r="K11">
         <v>0.999300808436518</v>
@@ -1224,7 +1176,7 @@
         <v>1.000059330711843</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,25 +1187,25 @@
         <v>1.007053913979558</v>
       </c>
       <c r="D12">
+        <v>0.9915867832588804</v>
+      </c>
+      <c r="E12">
+        <v>1.00647468187152</v>
+      </c>
+      <c r="F12">
+        <v>1.003995147028768</v>
+      </c>
+      <c r="G12">
+        <v>1.002736407726977</v>
+      </c>
+      <c r="H12">
         <v>0.9828865237868505</v>
       </c>
-      <c r="E12">
-        <v>1.002736407726977</v>
-      </c>
-      <c r="F12">
+      <c r="I12">
+        <v>0.9828865237868505</v>
+      </c>
+      <c r="J12">
         <v>1.007053913979558</v>
-      </c>
-      <c r="G12">
-        <v>1.00647468187152</v>
-      </c>
-      <c r="H12">
-        <v>0.9915867832588805</v>
-      </c>
-      <c r="I12">
-        <v>1.003995147028768</v>
-      </c>
-      <c r="J12">
-        <v>0.9828865237868505</v>
       </c>
       <c r="K12">
         <v>1.007053913979558</v>
@@ -1286,7 +1238,7 @@
         <v>0.9991222429420921</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,25 +1249,25 @@
         <v>0.9995844805297162</v>
       </c>
       <c r="D13">
+        <v>0.997928791093718</v>
+      </c>
+      <c r="E13">
+        <v>1.004074859443568</v>
+      </c>
+      <c r="F13">
+        <v>1.000869632053478</v>
+      </c>
+      <c r="G13">
+        <v>1.001398496851247</v>
+      </c>
+      <c r="H13">
         <v>0.9969974653786208</v>
       </c>
-      <c r="E13">
-        <v>1.001398496851247</v>
-      </c>
-      <c r="F13">
+      <c r="I13">
+        <v>0.9969974653786208</v>
+      </c>
+      <c r="J13">
         <v>0.9995844805297162</v>
-      </c>
-      <c r="G13">
-        <v>1.004074859443567</v>
-      </c>
-      <c r="H13">
-        <v>0.997928791093718</v>
-      </c>
-      <c r="I13">
-        <v>1.000869632053478</v>
-      </c>
-      <c r="J13">
-        <v>0.9969974653786208</v>
       </c>
       <c r="K13">
         <v>0.9995844805297162</v>
@@ -1348,7 +1300,7 @@
         <v>1.000142287558391</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,25 +1311,25 @@
         <v>1.001149827931247</v>
       </c>
       <c r="D14">
+        <v>0.987349171708401</v>
+      </c>
+      <c r="E14">
+        <v>1.020637758745816</v>
+      </c>
+      <c r="F14">
+        <v>1.005506844619889</v>
+      </c>
+      <c r="G14">
+        <v>1.007299872711343</v>
+      </c>
+      <c r="H14">
         <v>0.9795863095937261</v>
       </c>
-      <c r="E14">
-        <v>1.007299872711343</v>
-      </c>
-      <c r="F14">
+      <c r="I14">
+        <v>0.9795863095937261</v>
+      </c>
+      <c r="J14">
         <v>1.001149827931247</v>
-      </c>
-      <c r="G14">
-        <v>1.020637758745816</v>
-      </c>
-      <c r="H14">
-        <v>0.987349171708401</v>
-      </c>
-      <c r="I14">
-        <v>1.005506844619889</v>
-      </c>
-      <c r="J14">
-        <v>0.9795863095937261</v>
       </c>
       <c r="K14">
         <v>1.001149827931247</v>
@@ -1401,16 +1353,16 @@
         <v>0.9960120034121053</v>
       </c>
       <c r="R14">
-        <v>0.9972964595418907</v>
+        <v>0.9972964595418906</v>
       </c>
       <c r="S14">
-        <v>0.9972964595418907</v>
+        <v>0.9972964595418906</v>
       </c>
       <c r="T14">
         <v>1.000254964218404</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,25 +1373,25 @@
         <v>1.003363385039278</v>
       </c>
       <c r="D15">
-        <v>0.9930553304819052</v>
+        <v>0.9967662297887192</v>
       </c>
       <c r="E15">
+        <v>1.001736962037465</v>
+      </c>
+      <c r="F15">
+        <v>1.001570122837781</v>
+      </c>
+      <c r="G15">
         <v>1.000832161027932</v>
       </c>
-      <c r="F15">
+      <c r="H15">
+        <v>0.993055330481905</v>
+      </c>
+      <c r="I15">
+        <v>0.993055330481905</v>
+      </c>
+      <c r="J15">
         <v>1.003363385039278</v>
-      </c>
-      <c r="G15">
-        <v>1.001736962037465</v>
-      </c>
-      <c r="H15">
-        <v>0.9967662297887193</v>
-      </c>
-      <c r="I15">
-        <v>1.001570122837781</v>
-      </c>
-      <c r="J15">
-        <v>0.9930553304819052</v>
       </c>
       <c r="K15">
         <v>1.003363385039278</v>
@@ -1448,13 +1400,13 @@
         <v>1.000832161027932</v>
       </c>
       <c r="M15">
-        <v>0.9969437457549185</v>
+        <v>0.9969437457549183</v>
       </c>
       <c r="N15">
-        <v>0.9969437457549185</v>
+        <v>0.9969437457549183</v>
       </c>
       <c r="O15">
-        <v>0.9968845737661854</v>
+        <v>0.9968845737661853</v>
       </c>
       <c r="P15">
         <v>0.9990836255163714</v>
@@ -1472,7 +1424,7 @@
         <v>0.9995540318688466</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999835290046202</v>
+        <v>0.9793439273312026</v>
       </c>
       <c r="D16">
-        <v>1.000025462241912</v>
+        <v>1.047021991841024</v>
       </c>
       <c r="E16">
-        <v>0.9999992510084119</v>
+        <v>0.9421764511077964</v>
       </c>
       <c r="F16">
-        <v>0.9999835290046202</v>
+        <v>0.9786643552606543</v>
       </c>
       <c r="G16">
-        <v>1.000000989205963</v>
+        <v>0.9783846865145522</v>
       </c>
       <c r="H16">
-        <v>1.000010366926103</v>
+        <v>1.085090901701041</v>
       </c>
       <c r="I16">
-        <v>0.9999946669034259</v>
+        <v>1.085090901701041</v>
       </c>
       <c r="J16">
-        <v>1.000025462241912</v>
+        <v>0.9793439273312026</v>
       </c>
       <c r="K16">
-        <v>0.9999835290046202</v>
+        <v>0.9793439273312026</v>
       </c>
       <c r="L16">
-        <v>0.9999992510084119</v>
+        <v>0.9783846865145522</v>
       </c>
       <c r="M16">
-        <v>1.000012356625162</v>
+        <v>1.031737794107797</v>
       </c>
       <c r="N16">
-        <v>1.000012356625162</v>
+        <v>1.031737794107797</v>
       </c>
       <c r="O16">
-        <v>1.000011693392142</v>
+        <v>1.036832526685539</v>
       </c>
       <c r="P16">
-        <v>1.000002747418315</v>
+        <v>1.014273171848932</v>
       </c>
       <c r="Q16">
-        <v>1.000002747418315</v>
+        <v>1.014273171848932</v>
       </c>
       <c r="R16">
-        <v>0.9999979428148911</v>
+        <v>1.0055408607195</v>
       </c>
       <c r="S16">
-        <v>0.9999979428148911</v>
+        <v>1.0055408607195</v>
       </c>
       <c r="T16">
-        <v>1.000002377548406</v>
+        <v>1.001780385626045</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999155204980854</v>
+        <v>0.9828926000576483</v>
       </c>
       <c r="D17">
-        <v>1.000376577653839</v>
+        <v>1.038451193906678</v>
       </c>
       <c r="E17">
-        <v>0.9999004887550247</v>
+        <v>0.9529654805889176</v>
       </c>
       <c r="F17">
-        <v>0.9999155204980854</v>
+        <v>0.9825417955807108</v>
       </c>
       <c r="G17">
-        <v>0.9997317653585244</v>
+        <v>0.982397425613628</v>
       </c>
       <c r="H17">
-        <v>1.000210597818986</v>
+        <v>1.069702901617092</v>
       </c>
       <c r="I17">
-        <v>0.9999048706370485</v>
+        <v>1.069702901617092</v>
       </c>
       <c r="J17">
-        <v>1.000376577653839</v>
+        <v>0.9828926000576483</v>
       </c>
       <c r="K17">
-        <v>0.9999155204980854</v>
+        <v>0.9828926000576483</v>
       </c>
       <c r="L17">
-        <v>0.9999004887550247</v>
+        <v>0.982397425613628</v>
       </c>
       <c r="M17">
-        <v>1.000138533204432</v>
+        <v>1.02605016361536</v>
       </c>
       <c r="N17">
-        <v>1.000138533204432</v>
+        <v>1.02605016361536</v>
       </c>
       <c r="O17">
-        <v>1.000162554742617</v>
+        <v>1.030183840379133</v>
       </c>
       <c r="P17">
-        <v>1.00006419563565</v>
+        <v>1.011664309096123</v>
       </c>
       <c r="Q17">
-        <v>1.00006419563565</v>
+        <v>1.011664309096123</v>
       </c>
       <c r="R17">
-        <v>1.000027026851259</v>
+        <v>1.004471381836504</v>
       </c>
       <c r="S17">
-        <v>1.000027026851259</v>
+        <v>1.004471381836504</v>
       </c>
       <c r="T17">
-        <v>1.000006636786918</v>
+        <v>1.001491899560779</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9996469018056772</v>
+        <v>0.9900760036329095</v>
       </c>
       <c r="D18">
-        <v>1.00136007585925</v>
+        <v>1.02115188393995</v>
       </c>
       <c r="E18">
-        <v>0.99966724949676</v>
+        <v>0.9747181457857436</v>
       </c>
       <c r="F18">
-        <v>0.9996469018056772</v>
+        <v>0.9903691263894397</v>
       </c>
       <c r="G18">
-        <v>0.999116536917011</v>
+        <v>0.9904897532601824</v>
       </c>
       <c r="H18">
-        <v>1.000743334369751</v>
+        <v>1.03863206425791</v>
       </c>
       <c r="I18">
-        <v>0.9996613188861821</v>
+        <v>1.03863206425791</v>
       </c>
       <c r="J18">
-        <v>1.00136007585925</v>
+        <v>0.9900760036329095</v>
       </c>
       <c r="K18">
-        <v>0.9996469018056772</v>
+        <v>0.9900760036329095</v>
       </c>
       <c r="L18">
-        <v>0.99966724949676</v>
+        <v>0.9904897532601824</v>
       </c>
       <c r="M18">
-        <v>1.000513662678005</v>
+        <v>1.014560908759046</v>
       </c>
       <c r="N18">
-        <v>1.000513662678005</v>
+        <v>1.014560908759046</v>
       </c>
       <c r="O18">
-        <v>1.000590219908587</v>
+        <v>1.016757900486014</v>
       </c>
       <c r="P18">
-        <v>1.000224742387229</v>
+        <v>1.006399273717</v>
       </c>
       <c r="Q18">
-        <v>1.000224742387229</v>
+        <v>1.006399273717</v>
       </c>
       <c r="R18">
-        <v>1.000080282241841</v>
+        <v>1.002318456195978</v>
       </c>
       <c r="S18">
-        <v>1.000080282241841</v>
+        <v>1.002318456195978</v>
       </c>
       <c r="T18">
-        <v>1.000032569555772</v>
+        <v>1.000906162877689</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9991448585331815</v>
+        <v>0.9890527708043551</v>
       </c>
       <c r="D19">
+        <v>1.022989498059099</v>
+      </c>
+      <c r="E19">
+        <v>0.9727074050447417</v>
+      </c>
+      <c r="F19">
+        <v>0.9895238964914944</v>
+      </c>
+      <c r="G19">
+        <v>0.9897177756584696</v>
+      </c>
+      <c r="H19">
+        <v>1.04207890645268</v>
+      </c>
+      <c r="I19">
+        <v>1.04207890645268</v>
+      </c>
+      <c r="J19">
+        <v>0.9890527708043551</v>
+      </c>
+      <c r="K19">
+        <v>0.9890527708043551</v>
+      </c>
+      <c r="L19">
+        <v>0.9897177756584696</v>
+      </c>
+      <c r="M19">
+        <v>1.015898341055575</v>
+      </c>
+      <c r="N19">
+        <v>1.015898341055575</v>
+      </c>
+      <c r="O19">
+        <v>1.01826206005675</v>
+      </c>
+      <c r="P19">
+        <v>1.006949817638501</v>
+      </c>
+      <c r="Q19">
+        <v>1.006949817638501</v>
+      </c>
+      <c r="R19">
+        <v>1.002475555929965</v>
+      </c>
+      <c r="S19">
+        <v>1.002475555929965</v>
+      </c>
+      <c r="T19">
+        <v>1.001011708751806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999835290046202</v>
+      </c>
+      <c r="D20">
+        <v>1.000010366926103</v>
+      </c>
+      <c r="E20">
+        <v>1.000000989205963</v>
+      </c>
+      <c r="F20">
+        <v>0.9999946669034259</v>
+      </c>
+      <c r="G20">
+        <v>0.9999992510084119</v>
+      </c>
+      <c r="H20">
+        <v>1.000025462241912</v>
+      </c>
+      <c r="I20">
+        <v>1.000025462241912</v>
+      </c>
+      <c r="J20">
+        <v>0.9999835290046202</v>
+      </c>
+      <c r="K20">
+        <v>0.9999835290046202</v>
+      </c>
+      <c r="L20">
+        <v>0.9999992510084119</v>
+      </c>
+      <c r="M20">
+        <v>1.000012356625162</v>
+      </c>
+      <c r="N20">
+        <v>1.000012356625162</v>
+      </c>
+      <c r="O20">
+        <v>1.000011693392142</v>
+      </c>
+      <c r="P20">
+        <v>1.000002747418315</v>
+      </c>
+      <c r="Q20">
+        <v>1.000002747418315</v>
+      </c>
+      <c r="R20">
+        <v>0.9999979428148911</v>
+      </c>
+      <c r="S20">
+        <v>0.9999979428148911</v>
+      </c>
+      <c r="T20">
+        <v>1.000002377548406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999155204980854</v>
+      </c>
+      <c r="D21">
+        <v>1.000210597818986</v>
+      </c>
+      <c r="E21">
+        <v>0.9997317653585244</v>
+      </c>
+      <c r="F21">
+        <v>0.9999048706370485</v>
+      </c>
+      <c r="G21">
+        <v>0.9999004887550246</v>
+      </c>
+      <c r="H21">
+        <v>1.000376577653839</v>
+      </c>
+      <c r="I21">
+        <v>1.000376577653839</v>
+      </c>
+      <c r="J21">
+        <v>0.9999155204980854</v>
+      </c>
+      <c r="K21">
+        <v>0.9999155204980854</v>
+      </c>
+      <c r="L21">
+        <v>0.9999004887550246</v>
+      </c>
+      <c r="M21">
+        <v>1.000138533204432</v>
+      </c>
+      <c r="N21">
+        <v>1.000138533204432</v>
+      </c>
+      <c r="O21">
+        <v>1.000162554742617</v>
+      </c>
+      <c r="P21">
+        <v>1.00006419563565</v>
+      </c>
+      <c r="Q21">
+        <v>1.00006419563565</v>
+      </c>
+      <c r="R21">
+        <v>1.000027026851259</v>
+      </c>
+      <c r="S21">
+        <v>1.000027026851259</v>
+      </c>
+      <c r="T21">
+        <v>1.000006636786918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9996469018056772</v>
+      </c>
+      <c r="D22">
+        <v>1.000743334369751</v>
+      </c>
+      <c r="E22">
+        <v>0.9991165369170113</v>
+      </c>
+      <c r="F22">
+        <v>0.9996613188861821</v>
+      </c>
+      <c r="G22">
+        <v>0.99966724949676</v>
+      </c>
+      <c r="H22">
+        <v>1.00136007585925</v>
+      </c>
+      <c r="I22">
+        <v>1.00136007585925</v>
+      </c>
+      <c r="J22">
+        <v>0.9996469018056772</v>
+      </c>
+      <c r="K22">
+        <v>0.9996469018056772</v>
+      </c>
+      <c r="L22">
+        <v>0.99966724949676</v>
+      </c>
+      <c r="M22">
+        <v>1.000513662678005</v>
+      </c>
+      <c r="N22">
+        <v>1.000513662678005</v>
+      </c>
+      <c r="O22">
+        <v>1.000590219908587</v>
+      </c>
+      <c r="P22">
+        <v>1.000224742387229</v>
+      </c>
+      <c r="Q22">
+        <v>1.000224742387229</v>
+      </c>
+      <c r="R22">
+        <v>1.000080282241841</v>
+      </c>
+      <c r="S22">
+        <v>1.000080282241841</v>
+      </c>
+      <c r="T22">
+        <v>1.000032569555772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9991448585331814</v>
+      </c>
+      <c r="D23">
+        <v>1.001742355447337</v>
+      </c>
+      <c r="E23">
+        <v>0.9979608660151011</v>
+      </c>
+      <c r="F23">
+        <v>0.9992046799641616</v>
+      </c>
+      <c r="G23">
+        <v>0.9992292975362419</v>
+      </c>
+      <c r="H23">
         <v>1.00320344166459</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.00320344166459</v>
+      </c>
+      <c r="J23">
+        <v>0.9991448585331814</v>
+      </c>
+      <c r="K23">
+        <v>0.9991448585331814</v>
+      </c>
+      <c r="L23">
         <v>0.9992292975362419</v>
       </c>
-      <c r="F19">
-        <v>0.9991448585331815</v>
-      </c>
-      <c r="G19">
-        <v>0.9979608660151011</v>
-      </c>
-      <c r="H19">
-        <v>1.001742355447337</v>
-      </c>
-      <c r="I19">
-        <v>0.9992046799641616</v>
-      </c>
-      <c r="J19">
-        <v>1.00320344166459</v>
-      </c>
-      <c r="K19">
-        <v>0.9991448585331815</v>
-      </c>
-      <c r="L19">
-        <v>0.9992292975362419</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.001216369600416</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.001216369600416</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.001391698216056</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000525865911338</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000525865911338</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000180614066799</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000180614066799</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000080916526769</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.998946286226958</v>
+        <v>0.9884957780619611</v>
       </c>
       <c r="D3">
-        <v>1.00241111816569</v>
+        <v>1.024484148011526</v>
       </c>
       <c r="E3">
-        <v>0.9970287281979379</v>
+        <v>0.970754612752162</v>
       </c>
       <c r="F3">
-        <v>0.9989062754876741</v>
+        <v>0.988850989971181</v>
       </c>
       <c r="G3">
-        <v>0.998889810185085</v>
+        <v>0.9889971679250731</v>
       </c>
       <c r="H3">
-        <v>1.004360085354955</v>
+        <v>1.044727603429395</v>
       </c>
       <c r="I3">
-        <v>1.004360085354955</v>
+        <v>1.044727603429395</v>
       </c>
       <c r="J3">
-        <v>0.998946286226958</v>
+        <v>0.9884957780619611</v>
       </c>
       <c r="K3">
-        <v>0.998946286226958</v>
+        <v>0.9884957780619611</v>
       </c>
       <c r="L3">
-        <v>0.998889810185085</v>
+        <v>0.9889971679250731</v>
       </c>
       <c r="M3">
-        <v>1.00162494777002</v>
+        <v>1.016862385677234</v>
       </c>
       <c r="N3">
-        <v>1.00162494777002</v>
+        <v>1.016862385677234</v>
       </c>
       <c r="O3">
-        <v>1.001887004568577</v>
+        <v>1.019402973121998</v>
       </c>
       <c r="P3">
-        <v>1.000732060589</v>
+        <v>1.007406849805476</v>
       </c>
       <c r="Q3">
-        <v>1.000732060588999</v>
+        <v>1.007406849805476</v>
       </c>
       <c r="R3">
-        <v>1.000285616998489</v>
+        <v>1.002679081869598</v>
       </c>
       <c r="S3">
-        <v>1.000285616998489</v>
+        <v>1.002679081869598</v>
       </c>
       <c r="T3">
-        <v>1.000090383936383</v>
+        <v>1.001051716691883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9979669448376045</v>
+        <v>0.9893167215402555</v>
       </c>
       <c r="D4">
-        <v>1.00465459670126</v>
+        <v>1.022721901464775</v>
       </c>
       <c r="E4">
-        <v>0.9942627633005213</v>
+        <v>0.9728677022866206</v>
       </c>
       <c r="F4">
-        <v>0.9978886512659014</v>
+        <v>0.989653065339174</v>
       </c>
       <c r="G4">
-        <v>0.9978564328247085</v>
+        <v>0.9897914790048462</v>
       </c>
       <c r="H4">
-        <v>1.008416400787871</v>
+        <v>1.041512313351662</v>
       </c>
       <c r="I4">
-        <v>1.008416400787871</v>
+        <v>1.041512313351662</v>
       </c>
       <c r="J4">
-        <v>0.9979669448376045</v>
+        <v>0.9893167215402555</v>
       </c>
       <c r="K4">
-        <v>0.9979669448376045</v>
+        <v>0.9893167215402555</v>
       </c>
       <c r="L4">
-        <v>0.9978564328247085</v>
+        <v>0.9897914790048462</v>
       </c>
       <c r="M4">
-        <v>1.00313641680629</v>
+        <v>1.015651896178254</v>
       </c>
       <c r="N4">
-        <v>1.00313641680629</v>
+        <v>1.015651896178254</v>
       </c>
       <c r="O4">
-        <v>1.00364247677128</v>
+        <v>1.018008564607094</v>
       </c>
       <c r="P4">
-        <v>1.001413259483395</v>
+        <v>1.006873504632255</v>
       </c>
       <c r="Q4">
-        <v>1.001413259483395</v>
+        <v>1.006873504632255</v>
       </c>
       <c r="R4">
-        <v>1.000551680821947</v>
+        <v>1.002484308859255</v>
       </c>
       <c r="S4">
-        <v>1.000551680821947</v>
+        <v>1.002484308859255</v>
       </c>
       <c r="T4">
-        <v>1.000174298286311</v>
+        <v>1.000977197164556</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.996093619057332</v>
+        <v>0.986947243746632</v>
       </c>
       <c r="D5">
-        <v>1.008920308934465</v>
+        <v>1.027816926846362</v>
       </c>
       <c r="E5">
-        <v>0.9890165345061619</v>
+        <v>0.966753657574125</v>
       </c>
       <c r="F5">
-        <v>0.9959531670154607</v>
+        <v>0.9873343112668443</v>
       </c>
       <c r="G5">
-        <v>0.9958953661233009</v>
+        <v>0.9874935975741238</v>
       </c>
       <c r="H5">
-        <v>1.016135316067487</v>
+        <v>1.050806120323451</v>
       </c>
       <c r="I5">
-        <v>1.016135316067487</v>
+        <v>1.050806120323451</v>
       </c>
       <c r="J5">
-        <v>0.996093619057332</v>
+        <v>0.986947243746632</v>
       </c>
       <c r="K5">
-        <v>0.996093619057332</v>
+        <v>0.986947243746632</v>
       </c>
       <c r="L5">
-        <v>0.9958953661233009</v>
+        <v>0.9874935975741238</v>
       </c>
       <c r="M5">
-        <v>1.006015341095394</v>
+        <v>1.019149858948788</v>
       </c>
       <c r="N5">
-        <v>1.006015341095394</v>
+        <v>1.019149858948788</v>
       </c>
       <c r="O5">
-        <v>1.006983663708418</v>
+        <v>1.022038881581312</v>
       </c>
       <c r="P5">
-        <v>1.00270810041604</v>
+        <v>1.008415653881402</v>
       </c>
       <c r="Q5">
-        <v>1.00270810041604</v>
+        <v>1.008415653881402</v>
       </c>
       <c r="R5">
-        <v>1.001054480076363</v>
+        <v>1.00304855134771</v>
       </c>
       <c r="S5">
-        <v>1.001054480076363</v>
+        <v>1.00304855134771</v>
       </c>
       <c r="T5">
-        <v>1.000335718617368</v>
+        <v>1.001191976221923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9942656575860173</v>
+        <v>0.985513899545454</v>
       </c>
       <c r="D6">
-        <v>1.013083418963649</v>
+        <v>1.030912181193182</v>
       </c>
       <c r="E6">
-        <v>0.9838961571311435</v>
+        <v>0.963032293352272</v>
       </c>
       <c r="F6">
-        <v>0.9940642510083698</v>
+        <v>0.9859259830681816</v>
       </c>
       <c r="G6">
-        <v>0.9939813628103544</v>
+        <v>0.9860955622159089</v>
       </c>
       <c r="H6">
-        <v>1.023668408749371</v>
+        <v>1.056448703181819</v>
       </c>
       <c r="I6">
-        <v>1.023668408749371</v>
+        <v>1.056448703181819</v>
       </c>
       <c r="J6">
-        <v>0.9942656575860173</v>
+        <v>0.985513899545454</v>
       </c>
       <c r="K6">
-        <v>0.9942656575860173</v>
+        <v>0.985513899545454</v>
       </c>
       <c r="L6">
-        <v>0.9939813628103544</v>
+        <v>0.9860955622159089</v>
       </c>
       <c r="M6">
-        <v>1.008824885779863</v>
+        <v>1.021272132698864</v>
       </c>
       <c r="N6">
-        <v>1.008824885779863</v>
+        <v>1.021272132698864</v>
       </c>
       <c r="O6">
-        <v>1.010244396841125</v>
+        <v>1.02448548219697</v>
       </c>
       <c r="P6">
-        <v>1.003971809715247</v>
+        <v>1.009352721647727</v>
       </c>
       <c r="Q6">
-        <v>1.003971809715247</v>
+        <v>1.009352721647727</v>
       </c>
       <c r="R6">
-        <v>1.00154527168294</v>
+        <v>1.003393016122159</v>
       </c>
       <c r="S6">
-        <v>1.00154527168294</v>
+        <v>1.003393016122159</v>
       </c>
       <c r="T6">
-        <v>1.000493209374817</v>
+        <v>1.001321437092803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999277702567757</v>
+        <v>1.020558044695315</v>
       </c>
       <c r="D7">
-        <v>1.000155343264081</v>
+        <v>0.9543895463084302</v>
       </c>
       <c r="E7">
-        <v>0.9998135711985767</v>
+        <v>1.055485955400342</v>
       </c>
       <c r="F7">
-        <v>0.9999293052182108</v>
+        <v>1.020722828859264</v>
       </c>
       <c r="G7">
-        <v>0.9999299374888737</v>
+        <v>1.020790613425635</v>
       </c>
       <c r="H7">
-        <v>1.000283352287334</v>
+        <v>0.9171697621086814</v>
       </c>
       <c r="I7">
-        <v>1.000283352287334</v>
+        <v>0.9171697621086814</v>
       </c>
       <c r="J7">
-        <v>0.9999277702567757</v>
+        <v>1.020558044695315</v>
       </c>
       <c r="K7">
-        <v>0.9999277702567757</v>
+        <v>1.020558044695315</v>
       </c>
       <c r="L7">
-        <v>0.9999299374888737</v>
+        <v>1.020790613425635</v>
       </c>
       <c r="M7">
-        <v>1.000106644888104</v>
+        <v>0.9689801877671584</v>
       </c>
       <c r="N7">
-        <v>1.000106644888104</v>
+        <v>0.9689801877671584</v>
       </c>
       <c r="O7">
-        <v>1.000122877680096</v>
+        <v>0.9641166406142491</v>
       </c>
       <c r="P7">
-        <v>1.000047020010994</v>
+        <v>0.9861728067432107</v>
       </c>
       <c r="Q7">
-        <v>1.000047020010994</v>
+        <v>0.9861728067432107</v>
       </c>
       <c r="R7">
-        <v>1.00001720757244</v>
+        <v>0.9947691162312369</v>
       </c>
       <c r="S7">
-        <v>1.00001720757244</v>
+        <v>0.9947691162312369</v>
       </c>
       <c r="T7">
-        <v>1.000006546618975</v>
+        <v>0.9981861251329448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998410737480093</v>
+        <v>1.020273807195113</v>
       </c>
       <c r="D8">
-        <v>1.000348886209346</v>
+        <v>0.9550412447610166</v>
       </c>
       <c r="E8">
-        <v>0.9995775011912766</v>
+        <v>1.05468219723803</v>
       </c>
       <c r="F8">
-        <v>0.9998413989133579</v>
+        <v>1.020427236804369</v>
       </c>
       <c r="G8">
-        <v>0.9998415333641326</v>
+        <v>1.020490348945799</v>
       </c>
       <c r="H8">
-        <v>1.000634529798649</v>
+        <v>0.9183479242779776</v>
       </c>
       <c r="I8">
-        <v>1.000634529798649</v>
+        <v>0.9183479242779776</v>
       </c>
       <c r="J8">
-        <v>0.9998410737480093</v>
+        <v>1.020273807195113</v>
       </c>
       <c r="K8">
-        <v>0.9998410737480093</v>
+        <v>1.020273807195113</v>
       </c>
       <c r="L8">
-        <v>0.9998415333641326</v>
+        <v>1.020490348945799</v>
       </c>
       <c r="M8">
-        <v>1.000238031581391</v>
+        <v>0.9694191366118883</v>
       </c>
       <c r="N8">
-        <v>1.000238031581391</v>
+        <v>0.9694191366118883</v>
       </c>
       <c r="O8">
-        <v>1.000274983124042</v>
+        <v>0.9646265059949309</v>
       </c>
       <c r="P8">
-        <v>1.000105712303597</v>
+        <v>0.9863706934729631</v>
       </c>
       <c r="Q8">
-        <v>1.000105712303597</v>
+        <v>0.9863706934729634</v>
       </c>
       <c r="R8">
-        <v>1.0000395526647</v>
+        <v>0.9948464719035008</v>
       </c>
       <c r="S8">
-        <v>1.0000395526647</v>
+        <v>0.9948464719035008</v>
       </c>
       <c r="T8">
-        <v>1.000014153870795</v>
+        <v>0.9982104598703843</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9997969370272256</v>
+        <v>1.019978045948861</v>
       </c>
       <c r="D9">
-        <v>1.000463196559484</v>
+        <v>0.955661734331714</v>
       </c>
       <c r="E9">
-        <v>0.9994299267982554</v>
+        <v>1.053945905707979</v>
       </c>
       <c r="F9">
-        <v>0.9997898535160384</v>
+        <v>1.020144469829729</v>
       </c>
       <c r="G9">
-        <v>0.9997869395065653</v>
+        <v>1.02021292949973</v>
       </c>
       <c r="H9">
-        <v>1.000837966518389</v>
+        <v>0.9194838046510856</v>
       </c>
       <c r="I9">
-        <v>1.000837966518389</v>
+        <v>0.9194838046510856</v>
       </c>
       <c r="J9">
-        <v>0.9997969370272256</v>
+        <v>1.019978045948861</v>
       </c>
       <c r="K9">
-        <v>0.9997969370272256</v>
+        <v>1.019978045948861</v>
       </c>
       <c r="L9">
-        <v>0.9997869395065653</v>
+        <v>1.02021292949973</v>
       </c>
       <c r="M9">
-        <v>1.000312453012477</v>
+        <v>0.9698483670754077</v>
       </c>
       <c r="N9">
-        <v>1.000312453012477</v>
+        <v>0.9698483670754077</v>
       </c>
       <c r="O9">
-        <v>1.000362700861479</v>
+        <v>0.9651194894941764</v>
       </c>
       <c r="P9">
-        <v>1.000140614350727</v>
+        <v>0.9865582600332256</v>
       </c>
       <c r="Q9">
-        <v>1.000140614350727</v>
+        <v>0.9865582600332256</v>
       </c>
       <c r="R9">
-        <v>1.000054695019851</v>
+        <v>0.9949132065121344</v>
       </c>
       <c r="S9">
-        <v>1.000054695019851</v>
+        <v>0.9949132065121344</v>
       </c>
       <c r="T9">
-        <v>1.000017469987659</v>
+        <v>0.9982378149948495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9995405607124725</v>
+        <v>1.019669163459622</v>
       </c>
       <c r="D10">
-        <v>1.001024631266064</v>
+        <v>0.956543386454779</v>
       </c>
       <c r="E10">
-        <v>0.9987507580145052</v>
+        <v>1.052771332720297</v>
       </c>
       <c r="F10">
-        <v>0.9995345942687403</v>
+        <v>1.019748581429307</v>
       </c>
       <c r="G10">
-        <v>0.9995321385687089</v>
+        <v>1.019781236928488</v>
       </c>
       <c r="H10">
-        <v>1.001859420038145</v>
+        <v>0.9210351317714714</v>
       </c>
       <c r="I10">
-        <v>1.001859420038145</v>
+        <v>0.9210351317714714</v>
       </c>
       <c r="J10">
-        <v>0.9995405607124725</v>
+        <v>1.019669163459622</v>
       </c>
       <c r="K10">
-        <v>0.9995405607124725</v>
+        <v>1.019669163459622</v>
       </c>
       <c r="L10">
-        <v>0.9995321385687089</v>
+        <v>1.019781236928488</v>
       </c>
       <c r="M10">
-        <v>1.000695779303427</v>
+        <v>0.9704081843499797</v>
       </c>
       <c r="N10">
-        <v>1.000695779303427</v>
+        <v>0.9704081843499797</v>
       </c>
       <c r="O10">
-        <v>1.000805396624306</v>
+        <v>0.9657865850515795</v>
       </c>
       <c r="P10">
-        <v>1.000310706439776</v>
+        <v>0.9868285107198603</v>
       </c>
       <c r="Q10">
-        <v>1.000310706439776</v>
+        <v>0.9868285107198602</v>
       </c>
       <c r="R10">
-        <v>1.00011817000795</v>
+        <v>0.9950386739048006</v>
       </c>
       <c r="S10">
-        <v>1.00011817000795</v>
+        <v>0.9950386739048006</v>
       </c>
       <c r="T10">
-        <v>1.000040350478106</v>
+        <v>0.9982581387939939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.999300808436518</v>
+        <v>0.9989716097398963</v>
       </c>
       <c r="D11">
-        <v>1.001618117255861</v>
+        <v>1.00240054535893</v>
       </c>
       <c r="E11">
-        <v>0.9979967812308826</v>
+        <v>0.9970178917738977</v>
       </c>
       <c r="F11">
-        <v>0.9992664154666985</v>
+        <v>0.998912167531524</v>
       </c>
       <c r="G11">
-        <v>0.9992522628737902</v>
+        <v>0.9988877056822189</v>
       </c>
       <c r="H11">
-        <v>1.002921599007309</v>
+        <v>1.004329320543428</v>
       </c>
       <c r="I11">
-        <v>1.002921599007309</v>
+        <v>1.004329320543428</v>
       </c>
       <c r="J11">
-        <v>0.999300808436518</v>
+        <v>0.9989716097398963</v>
       </c>
       <c r="K11">
-        <v>0.999300808436518</v>
+        <v>0.9989716097398963</v>
       </c>
       <c r="L11">
-        <v>0.9992522628737902</v>
+        <v>0.9988877056822189</v>
       </c>
       <c r="M11">
-        <v>1.001086930940549</v>
+        <v>1.001608513112823</v>
       </c>
       <c r="N11">
-        <v>1.001086930940549</v>
+        <v>1.001608513112823</v>
       </c>
       <c r="O11">
-        <v>1.001263993045653</v>
+        <v>1.001872523861526</v>
       </c>
       <c r="P11">
-        <v>1.000491556772539</v>
+        <v>1.000729545321848</v>
       </c>
       <c r="Q11">
-        <v>1.000491556772539</v>
+        <v>1.000729545321848</v>
       </c>
       <c r="R11">
-        <v>1.000193869688534</v>
+        <v>1.00029006142636</v>
       </c>
       <c r="S11">
-        <v>1.000193869688534</v>
+        <v>1.00029006142636</v>
       </c>
       <c r="T11">
-        <v>1.000059330711843</v>
+        <v>1.000086540104983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.007053913979558</v>
+        <v>0.9995916930548365</v>
       </c>
       <c r="D12">
-        <v>0.9915867832588804</v>
+        <v>1.00093440955546</v>
       </c>
       <c r="E12">
-        <v>1.00647468187152</v>
+        <v>0.9988484478696672</v>
       </c>
       <c r="F12">
-        <v>1.003995147028768</v>
+        <v>0.999576139568882</v>
       </c>
       <c r="G12">
-        <v>1.002736407726977</v>
+        <v>0.9995697390101279</v>
       </c>
       <c r="H12">
-        <v>0.9828865237868505</v>
+        <v>1.001689686521476</v>
       </c>
       <c r="I12">
-        <v>0.9828865237868505</v>
+        <v>1.001689686521476</v>
       </c>
       <c r="J12">
-        <v>1.007053913979558</v>
+        <v>0.9995916930548365</v>
       </c>
       <c r="K12">
-        <v>1.007053913979558</v>
+        <v>0.9995916930548365</v>
       </c>
       <c r="L12">
-        <v>1.002736407726977</v>
+        <v>0.9995697390101279</v>
       </c>
       <c r="M12">
-        <v>0.9928114657569137</v>
+        <v>1.000629712765802</v>
       </c>
       <c r="N12">
-        <v>0.9928114657569137</v>
+        <v>1.000629712765802</v>
       </c>
       <c r="O12">
-        <v>0.9924032382575693</v>
+        <v>1.000731278362355</v>
       </c>
       <c r="P12">
-        <v>0.997558948497795</v>
+        <v>1.00028370619548</v>
       </c>
       <c r="Q12">
-        <v>0.997558948497795</v>
+        <v>1.00028370619548</v>
       </c>
       <c r="R12">
-        <v>0.9999326898682357</v>
+        <v>1.000110702910319</v>
       </c>
       <c r="S12">
-        <v>0.9999326898682357</v>
+        <v>1.000110702910319</v>
       </c>
       <c r="T12">
-        <v>0.9991222429420921</v>
+        <v>1.000035019263408</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9995844805297162</v>
+        <v>0.9987171695942961</v>
       </c>
       <c r="D13">
-        <v>0.997928791093718</v>
+        <v>1.002953666820678</v>
       </c>
       <c r="E13">
-        <v>1.004074859443568</v>
+        <v>0.9963509194753443</v>
       </c>
       <c r="F13">
-        <v>1.000869632053478</v>
+        <v>0.9986605871224269</v>
       </c>
       <c r="G13">
-        <v>1.001398496851247</v>
+        <v>0.9986373018031066</v>
       </c>
       <c r="H13">
-        <v>0.9969974653786208</v>
+        <v>1.005336698591215</v>
       </c>
       <c r="I13">
-        <v>0.9969974653786208</v>
+        <v>1.005336698591215</v>
       </c>
       <c r="J13">
-        <v>0.9995844805297162</v>
+        <v>0.9987171695942961</v>
       </c>
       <c r="K13">
-        <v>0.9995844805297162</v>
+        <v>0.9987171695942961</v>
       </c>
       <c r="L13">
-        <v>1.001398496851247</v>
+        <v>0.9986373018031066</v>
       </c>
       <c r="M13">
-        <v>0.9991979811149341</v>
+        <v>1.001987000197161</v>
       </c>
       <c r="N13">
-        <v>0.9991979811149341</v>
+        <v>1.001987000197161</v>
       </c>
       <c r="O13">
-        <v>0.9987749177745288</v>
+        <v>1.002309222405</v>
       </c>
       <c r="P13">
-        <v>0.9993268142531947</v>
+        <v>1.000897056662873</v>
       </c>
       <c r="Q13">
-        <v>0.9993268142531947</v>
+        <v>1.000897056662873</v>
       </c>
       <c r="R13">
-        <v>0.9993912308223251</v>
+        <v>1.000352084895729</v>
       </c>
       <c r="S13">
-        <v>0.9993912308223251</v>
+        <v>1.000352084895729</v>
       </c>
       <c r="T13">
-        <v>1.000142287558391</v>
+        <v>1.000109390567845</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.001149827931247</v>
+        <v>0.9970597539886105</v>
       </c>
       <c r="D14">
-        <v>0.987349171708401</v>
+        <v>1.006703109973581</v>
       </c>
       <c r="E14">
-        <v>1.020637758745816</v>
+        <v>0.9917521110882203</v>
       </c>
       <c r="F14">
-        <v>1.005506844619889</v>
+        <v>0.9969587806858997</v>
       </c>
       <c r="G14">
-        <v>1.007299872711343</v>
+        <v>0.9969172257314993</v>
       </c>
       <c r="H14">
-        <v>0.9795863095937261</v>
+        <v>1.012127491516575</v>
       </c>
       <c r="I14">
-        <v>0.9795863095937261</v>
+        <v>1.012127491516575</v>
       </c>
       <c r="J14">
-        <v>1.001149827931247</v>
+        <v>0.9970597539886105</v>
       </c>
       <c r="K14">
-        <v>1.001149827931247</v>
+        <v>0.9970597539886105</v>
       </c>
       <c r="L14">
-        <v>1.007299872711343</v>
+        <v>0.9969172257314993</v>
       </c>
       <c r="M14">
-        <v>0.9934430911525346</v>
+        <v>1.004522358624037</v>
       </c>
       <c r="N14">
-        <v>0.9934430911525346</v>
+        <v>1.004522358624037</v>
       </c>
       <c r="O14">
-        <v>0.9914117846711568</v>
+        <v>1.005249275740552</v>
       </c>
       <c r="P14">
-        <v>0.9960120034121053</v>
+        <v>1.002034823745561</v>
       </c>
       <c r="Q14">
-        <v>0.9960120034121053</v>
+        <v>1.002034823745562</v>
       </c>
       <c r="R14">
-        <v>0.9972964595418906</v>
+        <v>1.000791056306324</v>
       </c>
       <c r="S14">
-        <v>0.9972964595418906</v>
+        <v>1.000791056306324</v>
       </c>
       <c r="T14">
-        <v>1.000254964218404</v>
+        <v>1.000253078830731</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.003363385039278</v>
+        <v>0.998946286226958</v>
       </c>
       <c r="D15">
-        <v>0.9967662297887192</v>
+        <v>1.00241111816569</v>
       </c>
       <c r="E15">
-        <v>1.001736962037465</v>
+        <v>0.9970287281979379</v>
       </c>
       <c r="F15">
-        <v>1.001570122837781</v>
+        <v>0.9989062754876741</v>
       </c>
       <c r="G15">
-        <v>1.000832161027932</v>
+        <v>0.998889810185085</v>
       </c>
       <c r="H15">
-        <v>0.993055330481905</v>
+        <v>1.004360085354955</v>
       </c>
       <c r="I15">
-        <v>0.993055330481905</v>
+        <v>1.004360085354955</v>
       </c>
       <c r="J15">
-        <v>1.003363385039278</v>
+        <v>0.998946286226958</v>
       </c>
       <c r="K15">
-        <v>1.003363385039278</v>
+        <v>0.998946286226958</v>
       </c>
       <c r="L15">
-        <v>1.000832161027932</v>
+        <v>0.998889810185085</v>
       </c>
       <c r="M15">
-        <v>0.9969437457549183</v>
+        <v>1.00162494777002</v>
       </c>
       <c r="N15">
-        <v>0.9969437457549183</v>
+        <v>1.00162494777002</v>
       </c>
       <c r="O15">
-        <v>0.9968845737661853</v>
+        <v>1.001887004568577</v>
       </c>
       <c r="P15">
-        <v>0.9990836255163714</v>
+        <v>1.000732060589</v>
       </c>
       <c r="Q15">
-        <v>0.9990836255163714</v>
+        <v>1.000732060588999</v>
       </c>
       <c r="R15">
-        <v>1.000153565397098</v>
+        <v>1.000285616998489</v>
       </c>
       <c r="S15">
-        <v>1.000153565397098</v>
+        <v>1.000285616998489</v>
       </c>
       <c r="T15">
-        <v>0.9995540318688466</v>
+        <v>1.000090383936383</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9793439273312026</v>
+        <v>0.9979669448376045</v>
       </c>
       <c r="D16">
-        <v>1.047021991841024</v>
+        <v>1.00465459670126</v>
       </c>
       <c r="E16">
-        <v>0.9421764511077964</v>
+        <v>0.9942627633005213</v>
       </c>
       <c r="F16">
-        <v>0.9786643552606543</v>
+        <v>0.9978886512659014</v>
       </c>
       <c r="G16">
-        <v>0.9783846865145522</v>
+        <v>0.9978564328247085</v>
       </c>
       <c r="H16">
-        <v>1.085090901701041</v>
+        <v>1.008416400787871</v>
       </c>
       <c r="I16">
-        <v>1.085090901701041</v>
+        <v>1.008416400787871</v>
       </c>
       <c r="J16">
-        <v>0.9793439273312026</v>
+        <v>0.9979669448376045</v>
       </c>
       <c r="K16">
-        <v>0.9793439273312026</v>
+        <v>0.9979669448376045</v>
       </c>
       <c r="L16">
-        <v>0.9783846865145522</v>
+        <v>0.9978564328247085</v>
       </c>
       <c r="M16">
-        <v>1.031737794107797</v>
+        <v>1.00313641680629</v>
       </c>
       <c r="N16">
-        <v>1.031737794107797</v>
+        <v>1.00313641680629</v>
       </c>
       <c r="O16">
-        <v>1.036832526685539</v>
+        <v>1.00364247677128</v>
       </c>
       <c r="P16">
-        <v>1.014273171848932</v>
+        <v>1.001413259483395</v>
       </c>
       <c r="Q16">
-        <v>1.014273171848932</v>
+        <v>1.001413259483395</v>
       </c>
       <c r="R16">
-        <v>1.0055408607195</v>
+        <v>1.000551680821947</v>
       </c>
       <c r="S16">
-        <v>1.0055408607195</v>
+        <v>1.000551680821947</v>
       </c>
       <c r="T16">
-        <v>1.001780385626045</v>
+        <v>1.000174298286311</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9828926000576483</v>
+        <v>0.996093619057332</v>
       </c>
       <c r="D17">
-        <v>1.038451193906678</v>
+        <v>1.008920308934465</v>
       </c>
       <c r="E17">
-        <v>0.9529654805889176</v>
+        <v>0.9890165345061619</v>
       </c>
       <c r="F17">
-        <v>0.9825417955807108</v>
+        <v>0.9959531670154607</v>
       </c>
       <c r="G17">
-        <v>0.982397425613628</v>
+        <v>0.9958953661233009</v>
       </c>
       <c r="H17">
-        <v>1.069702901617092</v>
+        <v>1.016135316067487</v>
       </c>
       <c r="I17">
-        <v>1.069702901617092</v>
+        <v>1.016135316067487</v>
       </c>
       <c r="J17">
-        <v>0.9828926000576483</v>
+        <v>0.996093619057332</v>
       </c>
       <c r="K17">
-        <v>0.9828926000576483</v>
+        <v>0.996093619057332</v>
       </c>
       <c r="L17">
-        <v>0.982397425613628</v>
+        <v>0.9958953661233009</v>
       </c>
       <c r="M17">
-        <v>1.02605016361536</v>
+        <v>1.006015341095394</v>
       </c>
       <c r="N17">
-        <v>1.02605016361536</v>
+        <v>1.006015341095394</v>
       </c>
       <c r="O17">
-        <v>1.030183840379133</v>
+        <v>1.006983663708418</v>
       </c>
       <c r="P17">
-        <v>1.011664309096123</v>
+        <v>1.00270810041604</v>
       </c>
       <c r="Q17">
-        <v>1.011664309096123</v>
+        <v>1.00270810041604</v>
       </c>
       <c r="R17">
-        <v>1.004471381836504</v>
+        <v>1.001054480076363</v>
       </c>
       <c r="S17">
-        <v>1.004471381836504</v>
+        <v>1.001054480076363</v>
       </c>
       <c r="T17">
-        <v>1.001491899560779</v>
+        <v>1.000335718617368</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9900760036329095</v>
+        <v>0.9942656575860173</v>
       </c>
       <c r="D18">
-        <v>1.02115188393995</v>
+        <v>1.013083418963649</v>
       </c>
       <c r="E18">
-        <v>0.9747181457857436</v>
+        <v>0.9838961571311435</v>
       </c>
       <c r="F18">
-        <v>0.9903691263894397</v>
+        <v>0.9940642510083698</v>
       </c>
       <c r="G18">
-        <v>0.9904897532601824</v>
+        <v>0.9939813628103544</v>
       </c>
       <c r="H18">
-        <v>1.03863206425791</v>
+        <v>1.023668408749371</v>
       </c>
       <c r="I18">
-        <v>1.03863206425791</v>
+        <v>1.023668408749371</v>
       </c>
       <c r="J18">
-        <v>0.9900760036329095</v>
+        <v>0.9942656575860173</v>
       </c>
       <c r="K18">
-        <v>0.9900760036329095</v>
+        <v>0.9942656575860173</v>
       </c>
       <c r="L18">
-        <v>0.9904897532601824</v>
+        <v>0.9939813628103544</v>
       </c>
       <c r="M18">
-        <v>1.014560908759046</v>
+        <v>1.008824885779863</v>
       </c>
       <c r="N18">
-        <v>1.014560908759046</v>
+        <v>1.008824885779863</v>
       </c>
       <c r="O18">
-        <v>1.016757900486014</v>
+        <v>1.010244396841125</v>
       </c>
       <c r="P18">
-        <v>1.006399273717</v>
+        <v>1.003971809715247</v>
       </c>
       <c r="Q18">
-        <v>1.006399273717</v>
+        <v>1.003971809715247</v>
       </c>
       <c r="R18">
-        <v>1.002318456195978</v>
+        <v>1.00154527168294</v>
       </c>
       <c r="S18">
-        <v>1.002318456195978</v>
+        <v>1.00154527168294</v>
       </c>
       <c r="T18">
-        <v>1.000906162877689</v>
+        <v>1.000493209374817</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9890527708043551</v>
+        <v>0.9999277702567757</v>
       </c>
       <c r="D19">
-        <v>1.022989498059099</v>
+        <v>1.000155343264081</v>
       </c>
       <c r="E19">
-        <v>0.9727074050447417</v>
+        <v>0.9998135711985767</v>
       </c>
       <c r="F19">
-        <v>0.9895238964914944</v>
+        <v>0.9999293052182108</v>
       </c>
       <c r="G19">
-        <v>0.9897177756584696</v>
+        <v>0.9999299374888737</v>
       </c>
       <c r="H19">
-        <v>1.04207890645268</v>
+        <v>1.000283352287334</v>
       </c>
       <c r="I19">
-        <v>1.04207890645268</v>
+        <v>1.000283352287334</v>
       </c>
       <c r="J19">
-        <v>0.9890527708043551</v>
+        <v>0.9999277702567757</v>
       </c>
       <c r="K19">
-        <v>0.9890527708043551</v>
+        <v>0.9999277702567757</v>
       </c>
       <c r="L19">
-        <v>0.9897177756584696</v>
+        <v>0.9999299374888737</v>
       </c>
       <c r="M19">
-        <v>1.015898341055575</v>
+        <v>1.000106644888104</v>
       </c>
       <c r="N19">
-        <v>1.015898341055575</v>
+        <v>1.000106644888104</v>
       </c>
       <c r="O19">
-        <v>1.01826206005675</v>
+        <v>1.000122877680096</v>
       </c>
       <c r="P19">
-        <v>1.006949817638501</v>
+        <v>1.000047020010994</v>
       </c>
       <c r="Q19">
-        <v>1.006949817638501</v>
+        <v>1.000047020010994</v>
       </c>
       <c r="R19">
-        <v>1.002475555929965</v>
+        <v>1.00001720757244</v>
       </c>
       <c r="S19">
-        <v>1.002475555929965</v>
+        <v>1.00001720757244</v>
       </c>
       <c r="T19">
-        <v>1.001011708751806</v>
+        <v>1.000006546618975</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999835290046202</v>
+        <v>0.9998410737480093</v>
       </c>
       <c r="D20">
-        <v>1.000010366926103</v>
+        <v>1.000348886209346</v>
       </c>
       <c r="E20">
-        <v>1.000000989205963</v>
+        <v>0.9995775011912766</v>
       </c>
       <c r="F20">
-        <v>0.9999946669034259</v>
+        <v>0.9998413989133579</v>
       </c>
       <c r="G20">
-        <v>0.9999992510084119</v>
+        <v>0.9998415333641326</v>
       </c>
       <c r="H20">
-        <v>1.000025462241912</v>
+        <v>1.000634529798649</v>
       </c>
       <c r="I20">
-        <v>1.000025462241912</v>
+        <v>1.000634529798649</v>
       </c>
       <c r="J20">
-        <v>0.9999835290046202</v>
+        <v>0.9998410737480093</v>
       </c>
       <c r="K20">
-        <v>0.9999835290046202</v>
+        <v>0.9998410737480093</v>
       </c>
       <c r="L20">
-        <v>0.9999992510084119</v>
+        <v>0.9998415333641326</v>
       </c>
       <c r="M20">
-        <v>1.000012356625162</v>
+        <v>1.000238031581391</v>
       </c>
       <c r="N20">
-        <v>1.000012356625162</v>
+        <v>1.000238031581391</v>
       </c>
       <c r="O20">
-        <v>1.000011693392142</v>
+        <v>1.000274983124042</v>
       </c>
       <c r="P20">
-        <v>1.000002747418315</v>
+        <v>1.000105712303597</v>
       </c>
       <c r="Q20">
-        <v>1.000002747418315</v>
+        <v>1.000105712303597</v>
       </c>
       <c r="R20">
-        <v>0.9999979428148911</v>
+        <v>1.0000395526647</v>
       </c>
       <c r="S20">
-        <v>0.9999979428148911</v>
+        <v>1.0000395526647</v>
       </c>
       <c r="T20">
-        <v>1.000002377548406</v>
+        <v>1.000014153870795</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999155204980854</v>
+        <v>0.9997969370272256</v>
       </c>
       <c r="D21">
-        <v>1.000210597818986</v>
+        <v>1.000463196559484</v>
       </c>
       <c r="E21">
-        <v>0.9997317653585244</v>
+        <v>0.9994299267982554</v>
       </c>
       <c r="F21">
-        <v>0.9999048706370485</v>
+        <v>0.9997898535160384</v>
       </c>
       <c r="G21">
-        <v>0.9999004887550246</v>
+        <v>0.9997869395065653</v>
       </c>
       <c r="H21">
-        <v>1.000376577653839</v>
+        <v>1.000837966518389</v>
       </c>
       <c r="I21">
-        <v>1.000376577653839</v>
+        <v>1.000837966518389</v>
       </c>
       <c r="J21">
-        <v>0.9999155204980854</v>
+        <v>0.9997969370272256</v>
       </c>
       <c r="K21">
-        <v>0.9999155204980854</v>
+        <v>0.9997969370272256</v>
       </c>
       <c r="L21">
-        <v>0.9999004887550246</v>
+        <v>0.9997869395065653</v>
       </c>
       <c r="M21">
-        <v>1.000138533204432</v>
+        <v>1.000312453012477</v>
       </c>
       <c r="N21">
-        <v>1.000138533204432</v>
+        <v>1.000312453012477</v>
       </c>
       <c r="O21">
-        <v>1.000162554742617</v>
+        <v>1.000362700861479</v>
       </c>
       <c r="P21">
-        <v>1.00006419563565</v>
+        <v>1.000140614350727</v>
       </c>
       <c r="Q21">
-        <v>1.00006419563565</v>
+        <v>1.000140614350727</v>
       </c>
       <c r="R21">
-        <v>1.000027026851259</v>
+        <v>1.000054695019851</v>
       </c>
       <c r="S21">
-        <v>1.000027026851259</v>
+        <v>1.000054695019851</v>
       </c>
       <c r="T21">
-        <v>1.000006636786918</v>
+        <v>1.000017469987659</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9996469018056772</v>
+        <v>0.9995405607124725</v>
       </c>
       <c r="D22">
-        <v>1.000743334369751</v>
+        <v>1.001024631266064</v>
       </c>
       <c r="E22">
-        <v>0.9991165369170113</v>
+        <v>0.9987507580145052</v>
       </c>
       <c r="F22">
-        <v>0.9996613188861821</v>
+        <v>0.9995345942687403</v>
       </c>
       <c r="G22">
-        <v>0.99966724949676</v>
+        <v>0.9995321385687089</v>
       </c>
       <c r="H22">
-        <v>1.00136007585925</v>
+        <v>1.001859420038145</v>
       </c>
       <c r="I22">
-        <v>1.00136007585925</v>
+        <v>1.001859420038145</v>
       </c>
       <c r="J22">
-        <v>0.9996469018056772</v>
+        <v>0.9995405607124725</v>
       </c>
       <c r="K22">
-        <v>0.9996469018056772</v>
+        <v>0.9995405607124725</v>
       </c>
       <c r="L22">
-        <v>0.99966724949676</v>
+        <v>0.9995321385687089</v>
       </c>
       <c r="M22">
-        <v>1.000513662678005</v>
+        <v>1.000695779303427</v>
       </c>
       <c r="N22">
-        <v>1.000513662678005</v>
+        <v>1.000695779303427</v>
       </c>
       <c r="O22">
-        <v>1.000590219908587</v>
+        <v>1.000805396624306</v>
       </c>
       <c r="P22">
-        <v>1.000224742387229</v>
+        <v>1.000310706439776</v>
       </c>
       <c r="Q22">
-        <v>1.000224742387229</v>
+        <v>1.000310706439776</v>
       </c>
       <c r="R22">
-        <v>1.000080282241841</v>
+        <v>1.00011817000795</v>
       </c>
       <c r="S22">
-        <v>1.000080282241841</v>
+        <v>1.00011817000795</v>
       </c>
       <c r="T22">
-        <v>1.000032569555772</v>
+        <v>1.000040350478106</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.999300808436518</v>
+      </c>
+      <c r="D23">
+        <v>1.001618117255861</v>
+      </c>
+      <c r="E23">
+        <v>0.9979967812308826</v>
+      </c>
+      <c r="F23">
+        <v>0.9992664154666985</v>
+      </c>
+      <c r="G23">
+        <v>0.9992522628737902</v>
+      </c>
+      <c r="H23">
+        <v>1.002921599007309</v>
+      </c>
+      <c r="I23">
+        <v>1.002921599007309</v>
+      </c>
+      <c r="J23">
+        <v>0.999300808436518</v>
+      </c>
+      <c r="K23">
+        <v>0.999300808436518</v>
+      </c>
+      <c r="L23">
+        <v>0.9992522628737902</v>
+      </c>
+      <c r="M23">
+        <v>1.001086930940549</v>
+      </c>
+      <c r="N23">
+        <v>1.001086930940549</v>
+      </c>
+      <c r="O23">
+        <v>1.001263993045653</v>
+      </c>
+      <c r="P23">
+        <v>1.000491556772539</v>
+      </c>
+      <c r="Q23">
+        <v>1.000491556772539</v>
+      </c>
+      <c r="R23">
+        <v>1.000193869688534</v>
+      </c>
+      <c r="S23">
+        <v>1.000193869688534</v>
+      </c>
+      <c r="T23">
+        <v>1.000059330711843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.007053913979558</v>
+      </c>
+      <c r="D24">
+        <v>0.9915867832588804</v>
+      </c>
+      <c r="E24">
+        <v>1.00647468187152</v>
+      </c>
+      <c r="F24">
+        <v>1.003995147028768</v>
+      </c>
+      <c r="G24">
+        <v>1.002736407726977</v>
+      </c>
+      <c r="H24">
+        <v>0.9828865237868505</v>
+      </c>
+      <c r="I24">
+        <v>0.9828865237868505</v>
+      </c>
+      <c r="J24">
+        <v>1.007053913979558</v>
+      </c>
+      <c r="K24">
+        <v>1.007053913979558</v>
+      </c>
+      <c r="L24">
+        <v>1.002736407726977</v>
+      </c>
+      <c r="M24">
+        <v>0.9928114657569137</v>
+      </c>
+      <c r="N24">
+        <v>0.9928114657569137</v>
+      </c>
+      <c r="O24">
+        <v>0.9924032382575693</v>
+      </c>
+      <c r="P24">
+        <v>0.997558948497795</v>
+      </c>
+      <c r="Q24">
+        <v>0.997558948497795</v>
+      </c>
+      <c r="R24">
+        <v>0.9999326898682357</v>
+      </c>
+      <c r="S24">
+        <v>0.9999326898682357</v>
+      </c>
+      <c r="T24">
+        <v>0.9991222429420921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9995844805297162</v>
+      </c>
+      <c r="D25">
+        <v>0.997928791093718</v>
+      </c>
+      <c r="E25">
+        <v>1.004074859443568</v>
+      </c>
+      <c r="F25">
+        <v>1.000869632053478</v>
+      </c>
+      <c r="G25">
+        <v>1.001398496851247</v>
+      </c>
+      <c r="H25">
+        <v>0.9969974653786208</v>
+      </c>
+      <c r="I25">
+        <v>0.9969974653786208</v>
+      </c>
+      <c r="J25">
+        <v>0.9995844805297162</v>
+      </c>
+      <c r="K25">
+        <v>0.9995844805297162</v>
+      </c>
+      <c r="L25">
+        <v>1.001398496851247</v>
+      </c>
+      <c r="M25">
+        <v>0.9991979811149341</v>
+      </c>
+      <c r="N25">
+        <v>0.9991979811149341</v>
+      </c>
+      <c r="O25">
+        <v>0.9987749177745288</v>
+      </c>
+      <c r="P25">
+        <v>0.9993268142531947</v>
+      </c>
+      <c r="Q25">
+        <v>0.9993268142531947</v>
+      </c>
+      <c r="R25">
+        <v>0.9993912308223251</v>
+      </c>
+      <c r="S25">
+        <v>0.9993912308223251</v>
+      </c>
+      <c r="T25">
+        <v>1.000142287558391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.001149827931247</v>
+      </c>
+      <c r="D26">
+        <v>0.987349171708401</v>
+      </c>
+      <c r="E26">
+        <v>1.020637758745816</v>
+      </c>
+      <c r="F26">
+        <v>1.005506844619889</v>
+      </c>
+      <c r="G26">
+        <v>1.007299872711343</v>
+      </c>
+      <c r="H26">
+        <v>0.9795863095937261</v>
+      </c>
+      <c r="I26">
+        <v>0.9795863095937261</v>
+      </c>
+      <c r="J26">
+        <v>1.001149827931247</v>
+      </c>
+      <c r="K26">
+        <v>1.001149827931247</v>
+      </c>
+      <c r="L26">
+        <v>1.007299872711343</v>
+      </c>
+      <c r="M26">
+        <v>0.9934430911525346</v>
+      </c>
+      <c r="N26">
+        <v>0.9934430911525346</v>
+      </c>
+      <c r="O26">
+        <v>0.9914117846711568</v>
+      </c>
+      <c r="P26">
+        <v>0.9960120034121053</v>
+      </c>
+      <c r="Q26">
+        <v>0.9960120034121053</v>
+      </c>
+      <c r="R26">
+        <v>0.9972964595418906</v>
+      </c>
+      <c r="S26">
+        <v>0.9972964595418906</v>
+      </c>
+      <c r="T26">
+        <v>1.000254964218404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.003363385039278</v>
+      </c>
+      <c r="D27">
+        <v>0.9967662297887192</v>
+      </c>
+      <c r="E27">
+        <v>1.001736962037465</v>
+      </c>
+      <c r="F27">
+        <v>1.001570122837781</v>
+      </c>
+      <c r="G27">
+        <v>1.000832161027932</v>
+      </c>
+      <c r="H27">
+        <v>0.993055330481905</v>
+      </c>
+      <c r="I27">
+        <v>0.993055330481905</v>
+      </c>
+      <c r="J27">
+        <v>1.003363385039278</v>
+      </c>
+      <c r="K27">
+        <v>1.003363385039278</v>
+      </c>
+      <c r="L27">
+        <v>1.000832161027932</v>
+      </c>
+      <c r="M27">
+        <v>0.9969437457549183</v>
+      </c>
+      <c r="N27">
+        <v>0.9969437457549183</v>
+      </c>
+      <c r="O27">
+        <v>0.9968845737661853</v>
+      </c>
+      <c r="P27">
+        <v>0.9990836255163714</v>
+      </c>
+      <c r="Q27">
+        <v>0.9990836255163714</v>
+      </c>
+      <c r="R27">
+        <v>1.000153565397098</v>
+      </c>
+      <c r="S27">
+        <v>1.000153565397098</v>
+      </c>
+      <c r="T27">
+        <v>0.9995540318688466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9793439273312026</v>
+      </c>
+      <c r="D28">
+        <v>1.047021991841024</v>
+      </c>
+      <c r="E28">
+        <v>0.9421764511077964</v>
+      </c>
+      <c r="F28">
+        <v>0.9786643552606543</v>
+      </c>
+      <c r="G28">
+        <v>0.9783846865145522</v>
+      </c>
+      <c r="H28">
+        <v>1.085090901701041</v>
+      </c>
+      <c r="I28">
+        <v>1.085090901701041</v>
+      </c>
+      <c r="J28">
+        <v>0.9793439273312026</v>
+      </c>
+      <c r="K28">
+        <v>0.9793439273312026</v>
+      </c>
+      <c r="L28">
+        <v>0.9783846865145522</v>
+      </c>
+      <c r="M28">
+        <v>1.031737794107797</v>
+      </c>
+      <c r="N28">
+        <v>1.031737794107797</v>
+      </c>
+      <c r="O28">
+        <v>1.036832526685539</v>
+      </c>
+      <c r="P28">
+        <v>1.014273171848932</v>
+      </c>
+      <c r="Q28">
+        <v>1.014273171848932</v>
+      </c>
+      <c r="R28">
+        <v>1.0055408607195</v>
+      </c>
+      <c r="S28">
+        <v>1.0055408607195</v>
+      </c>
+      <c r="T28">
+        <v>1.001780385626045</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9828926000576483</v>
+      </c>
+      <c r="D29">
+        <v>1.038451193906678</v>
+      </c>
+      <c r="E29">
+        <v>0.9529654805889176</v>
+      </c>
+      <c r="F29">
+        <v>0.9825417955807108</v>
+      </c>
+      <c r="G29">
+        <v>0.982397425613628</v>
+      </c>
+      <c r="H29">
+        <v>1.069702901617092</v>
+      </c>
+      <c r="I29">
+        <v>1.069702901617092</v>
+      </c>
+      <c r="J29">
+        <v>0.9828926000576483</v>
+      </c>
+      <c r="K29">
+        <v>0.9828926000576483</v>
+      </c>
+      <c r="L29">
+        <v>0.982397425613628</v>
+      </c>
+      <c r="M29">
+        <v>1.02605016361536</v>
+      </c>
+      <c r="N29">
+        <v>1.02605016361536</v>
+      </c>
+      <c r="O29">
+        <v>1.030183840379133</v>
+      </c>
+      <c r="P29">
+        <v>1.011664309096123</v>
+      </c>
+      <c r="Q29">
+        <v>1.011664309096123</v>
+      </c>
+      <c r="R29">
+        <v>1.004471381836504</v>
+      </c>
+      <c r="S29">
+        <v>1.004471381836504</v>
+      </c>
+      <c r="T29">
+        <v>1.001491899560779</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9900760036329095</v>
+      </c>
+      <c r="D30">
+        <v>1.02115188393995</v>
+      </c>
+      <c r="E30">
+        <v>0.9747181457857436</v>
+      </c>
+      <c r="F30">
+        <v>0.9903691263894397</v>
+      </c>
+      <c r="G30">
+        <v>0.9904897532601824</v>
+      </c>
+      <c r="H30">
+        <v>1.03863206425791</v>
+      </c>
+      <c r="I30">
+        <v>1.03863206425791</v>
+      </c>
+      <c r="J30">
+        <v>0.9900760036329095</v>
+      </c>
+      <c r="K30">
+        <v>0.9900760036329095</v>
+      </c>
+      <c r="L30">
+        <v>0.9904897532601824</v>
+      </c>
+      <c r="M30">
+        <v>1.014560908759046</v>
+      </c>
+      <c r="N30">
+        <v>1.014560908759046</v>
+      </c>
+      <c r="O30">
+        <v>1.016757900486014</v>
+      </c>
+      <c r="P30">
+        <v>1.006399273717</v>
+      </c>
+      <c r="Q30">
+        <v>1.006399273717</v>
+      </c>
+      <c r="R30">
+        <v>1.002318456195978</v>
+      </c>
+      <c r="S30">
+        <v>1.002318456195978</v>
+      </c>
+      <c r="T30">
+        <v>1.000906162877689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9890527708043551</v>
+      </c>
+      <c r="D31">
+        <v>1.022989498059099</v>
+      </c>
+      <c r="E31">
+        <v>0.9727074050447417</v>
+      </c>
+      <c r="F31">
+        <v>0.9895238964914944</v>
+      </c>
+      <c r="G31">
+        <v>0.9897177756584696</v>
+      </c>
+      <c r="H31">
+        <v>1.04207890645268</v>
+      </c>
+      <c r="I31">
+        <v>1.04207890645268</v>
+      </c>
+      <c r="J31">
+        <v>0.9890527708043551</v>
+      </c>
+      <c r="K31">
+        <v>0.9890527708043551</v>
+      </c>
+      <c r="L31">
+        <v>0.9897177756584696</v>
+      </c>
+      <c r="M31">
+        <v>1.015898341055575</v>
+      </c>
+      <c r="N31">
+        <v>1.015898341055575</v>
+      </c>
+      <c r="O31">
+        <v>1.01826206005675</v>
+      </c>
+      <c r="P31">
+        <v>1.006949817638501</v>
+      </c>
+      <c r="Q31">
+        <v>1.006949817638501</v>
+      </c>
+      <c r="R31">
+        <v>1.002475555929965</v>
+      </c>
+      <c r="S31">
+        <v>1.002475555929965</v>
+      </c>
+      <c r="T31">
+        <v>1.001011708751806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9766466646575338</v>
+      </c>
+      <c r="D32">
+        <v>1.054093989589042</v>
+      </c>
+      <c r="E32">
+        <v>0.9330080180821918</v>
+      </c>
+      <c r="F32">
+        <v>0.9754771931506846</v>
+      </c>
+      <c r="G32">
+        <v>0.9749959169863011</v>
+      </c>
+      <c r="H32">
+        <v>1.097658108082192</v>
+      </c>
+      <c r="I32">
+        <v>1.097658108082192</v>
+      </c>
+      <c r="J32">
+        <v>0.9766466646575338</v>
+      </c>
+      <c r="K32">
+        <v>0.9766466646575338</v>
+      </c>
+      <c r="L32">
+        <v>0.9749959169863011</v>
+      </c>
+      <c r="M32">
+        <v>1.036327012534247</v>
+      </c>
+      <c r="N32">
+        <v>1.036327012534247</v>
+      </c>
+      <c r="O32">
+        <v>1.042249338219178</v>
+      </c>
+      <c r="P32">
+        <v>1.016433563242009</v>
+      </c>
+      <c r="Q32">
+        <v>1.016433563242009</v>
+      </c>
+      <c r="R32">
+        <v>1.00648683859589</v>
+      </c>
+      <c r="S32">
+        <v>1.00648683859589</v>
+      </c>
+      <c r="T32">
+        <v>1.001979981757991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.004473282105263</v>
+      </c>
+      <c r="D33">
+        <v>0.9812723899999998</v>
+      </c>
+      <c r="E33">
+        <v>1.027356517894737</v>
+      </c>
+      <c r="F33">
+        <v>1.008298746842105</v>
+      </c>
+      <c r="G33">
+        <v>1.00987299631579</v>
+      </c>
+      <c r="H33">
+        <v>0.9682218842105264</v>
+      </c>
+      <c r="I33">
+        <v>0.9682218842105264</v>
+      </c>
+      <c r="J33">
+        <v>1.004473282105263</v>
+      </c>
+      <c r="K33">
+        <v>1.004473282105263</v>
+      </c>
+      <c r="L33">
+        <v>1.00987299631579</v>
+      </c>
+      <c r="M33">
+        <v>0.9890474402631579</v>
+      </c>
+      <c r="N33">
+        <v>0.9890474402631579</v>
+      </c>
+      <c r="O33">
+        <v>0.9864557568421052</v>
+      </c>
+      <c r="P33">
+        <v>0.9941893875438597</v>
+      </c>
+      <c r="Q33">
+        <v>0.9941893875438597</v>
+      </c>
+      <c r="R33">
+        <v>0.9967603611842106</v>
+      </c>
+      <c r="S33">
+        <v>0.9967603611842106</v>
+      </c>
+      <c r="T33">
+        <v>0.9999159695614036</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.014123868421053</v>
+      </c>
+      <c r="D34">
+        <v>0.9687706178947367</v>
+      </c>
+      <c r="E34">
+        <v>1.037935995789474</v>
+      </c>
+      <c r="F34">
+        <v>1.014191411578948</v>
+      </c>
+      <c r="G34">
+        <v>1.014219183157895</v>
+      </c>
+      <c r="H34">
+        <v>0.9432594063157896</v>
+      </c>
+      <c r="I34">
+        <v>0.9432594063157896</v>
+      </c>
+      <c r="J34">
+        <v>1.014123868421053</v>
+      </c>
+      <c r="K34">
+        <v>1.014123868421053</v>
+      </c>
+      <c r="L34">
+        <v>1.014219183157895</v>
+      </c>
+      <c r="M34">
+        <v>0.9787392947368423</v>
+      </c>
+      <c r="N34">
+        <v>0.9787392947368423</v>
+      </c>
+      <c r="O34">
+        <v>0.9754164024561405</v>
+      </c>
+      <c r="P34">
+        <v>0.9905341526315791</v>
+      </c>
+      <c r="Q34">
+        <v>0.9905341526315791</v>
+      </c>
+      <c r="R34">
+        <v>0.9964315815789474</v>
+      </c>
+      <c r="S34">
+        <v>0.9964315815789474</v>
+      </c>
+      <c r="T34">
+        <v>0.998750080526316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9596086951894197</v>
+      </c>
+      <c r="D35">
+        <v>1.084744695954615</v>
+      </c>
+      <c r="E35">
+        <v>0.8994360308700694</v>
+      </c>
+      <c r="F35">
+        <v>0.9613806545214394</v>
+      </c>
+      <c r="G35">
+        <v>0.9621098557463517</v>
+      </c>
+      <c r="H35">
+        <v>1.155133664892939</v>
+      </c>
+      <c r="I35">
+        <v>1.155133664892939</v>
+      </c>
+      <c r="J35">
+        <v>0.9596086951894197</v>
+      </c>
+      <c r="K35">
+        <v>0.9596086951894197</v>
+      </c>
+      <c r="L35">
+        <v>0.9621098557463517</v>
+      </c>
+      <c r="M35">
+        <v>1.058621760319645</v>
+      </c>
+      <c r="N35">
+        <v>1.058621760319645</v>
+      </c>
+      <c r="O35">
+        <v>1.067329405531302</v>
+      </c>
+      <c r="P35">
+        <v>1.025617405276237</v>
+      </c>
+      <c r="Q35">
+        <v>1.025617405276237</v>
+      </c>
+      <c r="R35">
+        <v>1.009115227754533</v>
+      </c>
+      <c r="S35">
+        <v>1.009115227754533</v>
+      </c>
+      <c r="T35">
+        <v>1.003735599529139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999835290046202</v>
+      </c>
+      <c r="D36">
+        <v>1.000010366926103</v>
+      </c>
+      <c r="E36">
+        <v>1.000000989205963</v>
+      </c>
+      <c r="F36">
+        <v>0.9999946669034259</v>
+      </c>
+      <c r="G36">
+        <v>0.9999992510084119</v>
+      </c>
+      <c r="H36">
+        <v>1.000025462241912</v>
+      </c>
+      <c r="I36">
+        <v>1.000025462241912</v>
+      </c>
+      <c r="J36">
+        <v>0.9999835290046202</v>
+      </c>
+      <c r="K36">
+        <v>0.9999835290046202</v>
+      </c>
+      <c r="L36">
+        <v>0.9999992510084119</v>
+      </c>
+      <c r="M36">
+        <v>1.000012356625162</v>
+      </c>
+      <c r="N36">
+        <v>1.000012356625162</v>
+      </c>
+      <c r="O36">
+        <v>1.000011693392142</v>
+      </c>
+      <c r="P36">
+        <v>1.000002747418315</v>
+      </c>
+      <c r="Q36">
+        <v>1.000002747418315</v>
+      </c>
+      <c r="R36">
+        <v>0.9999979428148911</v>
+      </c>
+      <c r="S36">
+        <v>0.9999979428148911</v>
+      </c>
+      <c r="T36">
+        <v>1.000002377548406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999155204980854</v>
+      </c>
+      <c r="D37">
+        <v>1.000210597818986</v>
+      </c>
+      <c r="E37">
+        <v>0.9997317653585244</v>
+      </c>
+      <c r="F37">
+        <v>0.9999048706370485</v>
+      </c>
+      <c r="G37">
+        <v>0.9999004887550246</v>
+      </c>
+      <c r="H37">
+        <v>1.000376577653839</v>
+      </c>
+      <c r="I37">
+        <v>1.000376577653839</v>
+      </c>
+      <c r="J37">
+        <v>0.9999155204980854</v>
+      </c>
+      <c r="K37">
+        <v>0.9999155204980854</v>
+      </c>
+      <c r="L37">
+        <v>0.9999004887550246</v>
+      </c>
+      <c r="M37">
+        <v>1.000138533204432</v>
+      </c>
+      <c r="N37">
+        <v>1.000138533204432</v>
+      </c>
+      <c r="O37">
+        <v>1.000162554742617</v>
+      </c>
+      <c r="P37">
+        <v>1.00006419563565</v>
+      </c>
+      <c r="Q37">
+        <v>1.00006419563565</v>
+      </c>
+      <c r="R37">
+        <v>1.000027026851259</v>
+      </c>
+      <c r="S37">
+        <v>1.000027026851259</v>
+      </c>
+      <c r="T37">
+        <v>1.000006636786918</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9996469018056772</v>
+      </c>
+      <c r="D38">
+        <v>1.000743334369751</v>
+      </c>
+      <c r="E38">
+        <v>0.9991165369170113</v>
+      </c>
+      <c r="F38">
+        <v>0.9996613188861821</v>
+      </c>
+      <c r="G38">
+        <v>0.99966724949676</v>
+      </c>
+      <c r="H38">
+        <v>1.00136007585925</v>
+      </c>
+      <c r="I38">
+        <v>1.00136007585925</v>
+      </c>
+      <c r="J38">
+        <v>0.9996469018056772</v>
+      </c>
+      <c r="K38">
+        <v>0.9996469018056772</v>
+      </c>
+      <c r="L38">
+        <v>0.99966724949676</v>
+      </c>
+      <c r="M38">
+        <v>1.000513662678005</v>
+      </c>
+      <c r="N38">
+        <v>1.000513662678005</v>
+      </c>
+      <c r="O38">
+        <v>1.000590219908587</v>
+      </c>
+      <c r="P38">
+        <v>1.000224742387229</v>
+      </c>
+      <c r="Q38">
+        <v>1.000224742387229</v>
+      </c>
+      <c r="R38">
+        <v>1.000080282241841</v>
+      </c>
+      <c r="S38">
+        <v>1.000080282241841</v>
+      </c>
+      <c r="T38">
+        <v>1.000032569555772</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9991448585331814</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.001742355447337</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9979608660151011</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9992046799641616</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9992292975362419</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.00320344166459</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.00320344166459</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9991448585331814</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9991448585331814</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9992292975362419</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.001216369600416</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.001216369600416</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.001391698216056</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000525865911338</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000525865911338</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000180614066799</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000180614066799</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000080916526769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.00590391216463</v>
+      </c>
+      <c r="D40">
+        <v>0.9869911290011703</v>
+      </c>
+      <c r="E40">
+        <v>1.015778944524004</v>
+      </c>
+      <c r="F40">
+        <v>1.005912640220035</v>
+      </c>
+      <c r="G40">
+        <v>1.005916228033319</v>
+      </c>
+      <c r="H40">
+        <v>0.9763526884281756</v>
+      </c>
+      <c r="I40">
+        <v>0.9763526884281756</v>
+      </c>
+      <c r="J40">
+        <v>1.00590391216463</v>
+      </c>
+      <c r="K40">
+        <v>1.00590391216463</v>
+      </c>
+      <c r="L40">
+        <v>1.005916228033319</v>
+      </c>
+      <c r="M40">
+        <v>0.9911344582307473</v>
+      </c>
+      <c r="N40">
+        <v>0.9911344582307473</v>
+      </c>
+      <c r="O40">
+        <v>0.989753348487555</v>
+      </c>
+      <c r="P40">
+        <v>0.9960576095420416</v>
+      </c>
+      <c r="Q40">
+        <v>0.9960576095420416</v>
+      </c>
+      <c r="R40">
+        <v>0.9985191851976887</v>
+      </c>
+      <c r="S40">
+        <v>0.9985191851976887</v>
+      </c>
+      <c r="T40">
+        <v>0.9994759237285554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000043158837953</v>
+      </c>
+      <c r="D41">
+        <v>1.000983248116101</v>
+      </c>
+      <c r="E41">
+        <v>0.998243218802585</v>
+      </c>
+      <c r="F41">
+        <v>0.9995790141662565</v>
+      </c>
+      <c r="G41">
+        <v>0.9993880074811018</v>
+      </c>
+      <c r="H41">
+        <v>1.00151204552891</v>
+      </c>
+      <c r="I41">
+        <v>1.00151204552891</v>
+      </c>
+      <c r="J41">
+        <v>1.000043158837953</v>
+      </c>
+      <c r="K41">
+        <v>1.000043158837953</v>
+      </c>
+      <c r="L41">
+        <v>0.9993880074811018</v>
+      </c>
+      <c r="M41">
+        <v>1.000450026505006</v>
+      </c>
+      <c r="N41">
+        <v>1.000450026505006</v>
+      </c>
+      <c r="O41">
+        <v>1.000627767042037</v>
+      </c>
+      <c r="P41">
+        <v>1.000314403949321</v>
+      </c>
+      <c r="Q41">
+        <v>1.000314403949321</v>
+      </c>
+      <c r="R41">
+        <v>1.000246592671479</v>
+      </c>
+      <c r="S41">
+        <v>1.000246592671479</v>
+      </c>
+      <c r="T41">
+        <v>0.9999581154888176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9873573569598096</v>
+      </c>
+      <c r="D42">
+        <v>1.026718107759595</v>
+      </c>
+      <c r="E42">
+        <v>0.9681885509570443</v>
+      </c>
+      <c r="F42">
+        <v>0.9878290481881895</v>
+      </c>
+      <c r="G42">
+        <v>0.9880231529603168</v>
+      </c>
+      <c r="H42">
+        <v>1.048858529932239</v>
+      </c>
+      <c r="I42">
+        <v>1.048858529932239</v>
+      </c>
+      <c r="J42">
+        <v>0.9873573569598096</v>
+      </c>
+      <c r="K42">
+        <v>0.9873573569598096</v>
+      </c>
+      <c r="L42">
+        <v>0.9880231529603168</v>
+      </c>
+      <c r="M42">
+        <v>1.018440841446278</v>
+      </c>
+      <c r="N42">
+        <v>1.018440841446278</v>
+      </c>
+      <c r="O42">
+        <v>1.021199930217384</v>
+      </c>
+      <c r="P42">
+        <v>1.008079679950788</v>
+      </c>
+      <c r="Q42">
+        <v>1.008079679950788</v>
+      </c>
+      <c r="R42">
+        <v>1.002899099203044</v>
+      </c>
+      <c r="S42">
+        <v>1.002899099203044</v>
+      </c>
+      <c r="T42">
+        <v>1.001162457792866</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.998946286226958</v>
+        <v>0.9998410737480093</v>
       </c>
       <c r="D3">
-        <v>1.004360085354955</v>
+        <v>1.000348886209346</v>
       </c>
       <c r="E3">
-        <v>0.998889810185085</v>
+        <v>0.9995775011912766</v>
       </c>
       <c r="F3">
-        <v>0.998946286226958</v>
+        <v>0.9998413989133579</v>
       </c>
       <c r="G3">
-        <v>0.9970287281979379</v>
+        <v>0.9998415333641326</v>
       </c>
       <c r="H3">
-        <v>1.00241111816569</v>
+        <v>1.000634529798649</v>
       </c>
       <c r="I3">
-        <v>0.9989062754876741</v>
+        <v>1.000634529798649</v>
       </c>
       <c r="J3">
-        <v>1.004360085354955</v>
+        <v>0.9998410737480093</v>
       </c>
       <c r="K3">
-        <v>0.998946286226958</v>
+        <v>0.9998410737480093</v>
       </c>
       <c r="L3">
-        <v>0.998889810185085</v>
+        <v>0.9998415333641326</v>
       </c>
       <c r="M3">
-        <v>1.00162494777002</v>
+        <v>1.000238031581391</v>
       </c>
       <c r="N3">
-        <v>1.00162494777002</v>
+        <v>1.000238031581391</v>
       </c>
       <c r="O3">
-        <v>1.001887004568577</v>
+        <v>1.000274983124042</v>
       </c>
       <c r="P3">
-        <v>1.000732060589</v>
+        <v>1.000105712303597</v>
       </c>
       <c r="Q3">
-        <v>1.000732060588999</v>
+        <v>1.000105712303597</v>
       </c>
       <c r="R3">
-        <v>1.000285616998489</v>
+        <v>1.0000395526647</v>
       </c>
       <c r="S3">
-        <v>1.000285616998489</v>
+        <v>1.0000395526647</v>
       </c>
       <c r="T3">
-        <v>1.000090383936383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000014153870795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9979669448376046</v>
+        <v>1.00590391216463</v>
       </c>
       <c r="D4">
-        <v>1.008416400787871</v>
+        <v>0.9869911290011703</v>
       </c>
       <c r="E4">
-        <v>0.9978564328247085</v>
+        <v>1.015778944524004</v>
       </c>
       <c r="F4">
-        <v>0.9979669448376046</v>
+        <v>1.005912640220035</v>
       </c>
       <c r="G4">
-        <v>0.9942627633005213</v>
+        <v>1.005916228033319</v>
       </c>
       <c r="H4">
-        <v>1.00465459670126</v>
+        <v>0.9763526884281756</v>
       </c>
       <c r="I4">
-        <v>0.9978886512659014</v>
+        <v>0.9763526884281756</v>
       </c>
       <c r="J4">
-        <v>1.008416400787871</v>
+        <v>1.00590391216463</v>
       </c>
       <c r="K4">
-        <v>0.9979669448376046</v>
+        <v>1.00590391216463</v>
       </c>
       <c r="L4">
-        <v>0.9978564328247085</v>
+        <v>1.005916228033319</v>
       </c>
       <c r="M4">
-        <v>1.00313641680629</v>
+        <v>0.9911344582307473</v>
       </c>
       <c r="N4">
-        <v>1.00313641680629</v>
+        <v>0.9911344582307473</v>
       </c>
       <c r="O4">
-        <v>1.00364247677128</v>
+        <v>0.989753348487555</v>
       </c>
       <c r="P4">
-        <v>1.001413259483395</v>
+        <v>0.9960576095420416</v>
       </c>
       <c r="Q4">
-        <v>1.001413259483395</v>
+        <v>0.9960576095420416</v>
       </c>
       <c r="R4">
-        <v>1.000551680821947</v>
+        <v>0.9985191851976887</v>
       </c>
       <c r="S4">
-        <v>1.000551680821947</v>
+        <v>0.9985191851976887</v>
       </c>
       <c r="T4">
-        <v>1.000174298286311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9994759237285554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.996093619057332</v>
+        <v>0.9884957780619611</v>
       </c>
       <c r="D5">
-        <v>1.016135316067487</v>
+        <v>1.024484148011526</v>
       </c>
       <c r="E5">
-        <v>0.9958953661233014</v>
+        <v>0.970754612752162</v>
       </c>
       <c r="F5">
-        <v>0.996093619057332</v>
+        <v>0.988850989971181</v>
       </c>
       <c r="G5">
-        <v>0.9890165345061619</v>
+        <v>0.9889971679250731</v>
       </c>
       <c r="H5">
-        <v>1.008920308934465</v>
+        <v>1.044727603429395</v>
       </c>
       <c r="I5">
-        <v>0.9959531670154607</v>
+        <v>1.044727603429395</v>
       </c>
       <c r="J5">
-        <v>1.016135316067487</v>
+        <v>0.9884957780619611</v>
       </c>
       <c r="K5">
-        <v>0.996093619057332</v>
+        <v>0.9884957780619611</v>
       </c>
       <c r="L5">
-        <v>0.9958953661233014</v>
+        <v>0.9889971679250731</v>
       </c>
       <c r="M5">
-        <v>1.006015341095394</v>
+        <v>1.016862385677234</v>
       </c>
       <c r="N5">
-        <v>1.006015341095394</v>
+        <v>1.016862385677234</v>
       </c>
       <c r="O5">
-        <v>1.006983663708418</v>
+        <v>1.019402973121998</v>
       </c>
       <c r="P5">
-        <v>1.00270810041604</v>
+        <v>1.007406849805476</v>
       </c>
       <c r="Q5">
-        <v>1.00270810041604</v>
+        <v>1.007406849805476</v>
       </c>
       <c r="R5">
-        <v>1.001054480076363</v>
+        <v>1.002679081869598</v>
       </c>
       <c r="S5">
-        <v>1.001054480076363</v>
+        <v>1.002679081869598</v>
       </c>
       <c r="T5">
-        <v>1.000335718617368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.001051716691883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9942656575860171</v>
+        <v>0.9596086951894197</v>
       </c>
       <c r="D6">
-        <v>1.023668408749371</v>
+        <v>1.084744695954615</v>
       </c>
       <c r="E6">
-        <v>0.9939813628103548</v>
+        <v>0.8994360308700694</v>
       </c>
       <c r="F6">
-        <v>0.9942656575860171</v>
+        <v>0.9613806545214394</v>
       </c>
       <c r="G6">
-        <v>0.9838961571311435</v>
+        <v>0.9621098557463517</v>
       </c>
       <c r="H6">
-        <v>1.013083418963649</v>
+        <v>1.155133664892939</v>
       </c>
       <c r="I6">
-        <v>0.9940642510083698</v>
+        <v>1.155133664892939</v>
       </c>
       <c r="J6">
-        <v>1.023668408749371</v>
+        <v>0.9596086951894197</v>
       </c>
       <c r="K6">
-        <v>0.9942656575860171</v>
+        <v>0.9596086951894197</v>
       </c>
       <c r="L6">
-        <v>0.9939813628103548</v>
+        <v>0.9621098557463517</v>
       </c>
       <c r="M6">
-        <v>1.008824885779863</v>
+        <v>1.058621760319645</v>
       </c>
       <c r="N6">
-        <v>1.008824885779863</v>
+        <v>1.058621760319645</v>
       </c>
       <c r="O6">
-        <v>1.010244396841125</v>
+        <v>1.067329405531302</v>
       </c>
       <c r="P6">
-        <v>1.003971809715247</v>
+        <v>1.025617405276237</v>
       </c>
       <c r="Q6">
-        <v>1.003971809715247</v>
+        <v>1.025617405276237</v>
       </c>
       <c r="R6">
-        <v>1.00154527168294</v>
+        <v>1.009115227754533</v>
       </c>
       <c r="S6">
-        <v>1.00154527168294</v>
+        <v>1.009115227754533</v>
       </c>
       <c r="T6">
-        <v>1.000493209374817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.003735599529139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999277702567757</v>
+        <v>0.9989716097398963</v>
       </c>
       <c r="D7">
-        <v>1.000283352287334</v>
+        <v>1.00240054535893</v>
       </c>
       <c r="E7">
-        <v>0.9999299374888737</v>
+        <v>0.9970178917738977</v>
       </c>
       <c r="F7">
-        <v>0.9999277702567757</v>
+        <v>0.998912167531524</v>
       </c>
       <c r="G7">
-        <v>0.9998135711985766</v>
+        <v>0.9988877056822189</v>
       </c>
       <c r="H7">
-        <v>1.000155343264081</v>
+        <v>1.004329320543428</v>
       </c>
       <c r="I7">
-        <v>0.9999293052182108</v>
+        <v>1.004329320543428</v>
       </c>
       <c r="J7">
-        <v>1.000283352287334</v>
+        <v>0.9989716097398963</v>
       </c>
       <c r="K7">
-        <v>0.9999277702567757</v>
+        <v>0.9989716097398963</v>
       </c>
       <c r="L7">
-        <v>0.9999299374888737</v>
+        <v>0.9988877056822189</v>
       </c>
       <c r="M7">
-        <v>1.000106644888104</v>
+        <v>1.001608513112823</v>
       </c>
       <c r="N7">
-        <v>1.000106644888104</v>
+        <v>1.001608513112823</v>
       </c>
       <c r="O7">
-        <v>1.000122877680096</v>
+        <v>1.001872523861526</v>
       </c>
       <c r="P7">
-        <v>1.000047020010994</v>
+        <v>1.000729545321848</v>
       </c>
       <c r="Q7">
-        <v>1.000047020010994</v>
+        <v>1.000729545321848</v>
       </c>
       <c r="R7">
-        <v>1.00001720757244</v>
+        <v>1.00029006142636</v>
       </c>
       <c r="S7">
-        <v>1.00001720757244</v>
+        <v>1.00029006142636</v>
       </c>
       <c r="T7">
-        <v>1.000006546618975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000086540104983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998410737480095</v>
+        <v>0.9999155204980854</v>
       </c>
       <c r="D8">
-        <v>1.000634529798649</v>
+        <v>1.000210597818986</v>
       </c>
       <c r="E8">
-        <v>0.9998415333641326</v>
+        <v>0.9997317653585244</v>
       </c>
       <c r="F8">
-        <v>0.9998410737480095</v>
+        <v>0.9999048706370485</v>
       </c>
       <c r="G8">
-        <v>0.9995775011912766</v>
+        <v>0.9999004887550246</v>
       </c>
       <c r="H8">
-        <v>1.000348886209346</v>
+        <v>1.000376577653839</v>
       </c>
       <c r="I8">
-        <v>0.9998413989133579</v>
+        <v>1.000376577653839</v>
       </c>
       <c r="J8">
-        <v>1.000634529798649</v>
+        <v>0.9999155204980854</v>
       </c>
       <c r="K8">
-        <v>0.9998410737480095</v>
+        <v>0.9999155204980854</v>
       </c>
       <c r="L8">
-        <v>0.9998415333641326</v>
+        <v>0.9999004887550246</v>
       </c>
       <c r="M8">
-        <v>1.000238031581391</v>
+        <v>1.000138533204432</v>
       </c>
       <c r="N8">
-        <v>1.000238031581391</v>
+        <v>1.000138533204432</v>
       </c>
       <c r="O8">
-        <v>1.000274983124042</v>
+        <v>1.000162554742617</v>
       </c>
       <c r="P8">
-        <v>1.000105712303597</v>
+        <v>1.00006419563565</v>
       </c>
       <c r="Q8">
-        <v>1.000105712303597</v>
+        <v>1.00006419563565</v>
       </c>
       <c r="R8">
-        <v>1.0000395526647</v>
+        <v>1.000027026851259</v>
       </c>
       <c r="S8">
-        <v>1.0000395526647</v>
+        <v>1.000027026851259</v>
       </c>
       <c r="T8">
-        <v>1.000014153870795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000006636786918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9997969370272256</v>
+        <v>0.9979669448376045</v>
       </c>
       <c r="D9">
-        <v>1.000837966518389</v>
+        <v>1.00465459670126</v>
       </c>
       <c r="E9">
-        <v>0.9997869395065653</v>
+        <v>0.9942627633005213</v>
       </c>
       <c r="F9">
-        <v>0.9997969370272256</v>
+        <v>0.9978886512659014</v>
       </c>
       <c r="G9">
-        <v>0.9994299267982554</v>
+        <v>0.9978564328247085</v>
       </c>
       <c r="H9">
-        <v>1.000463196559484</v>
+        <v>1.008416400787871</v>
       </c>
       <c r="I9">
-        <v>0.9997898535160384</v>
+        <v>1.008416400787871</v>
       </c>
       <c r="J9">
-        <v>1.000837966518389</v>
+        <v>0.9979669448376045</v>
       </c>
       <c r="K9">
-        <v>0.9997969370272256</v>
+        <v>0.9979669448376045</v>
       </c>
       <c r="L9">
-        <v>0.9997869395065653</v>
+        <v>0.9978564328247085</v>
       </c>
       <c r="M9">
-        <v>1.000312453012477</v>
+        <v>1.00313641680629</v>
       </c>
       <c r="N9">
-        <v>1.000312453012477</v>
+        <v>1.00313641680629</v>
       </c>
       <c r="O9">
-        <v>1.000362700861479</v>
+        <v>1.00364247677128</v>
       </c>
       <c r="P9">
-        <v>1.000140614350727</v>
+        <v>1.001413259483395</v>
       </c>
       <c r="Q9">
-        <v>1.000140614350727</v>
+        <v>1.001413259483395</v>
       </c>
       <c r="R9">
-        <v>1.000054695019851</v>
+        <v>1.000551680821947</v>
       </c>
       <c r="S9">
-        <v>1.000054695019851</v>
+        <v>1.000551680821947</v>
       </c>
       <c r="T9">
-        <v>1.000017469987659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000174298286311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9995405607124725</v>
+        <v>0.9589756628391896</v>
       </c>
       <c r="D10">
-        <v>1.001859420038145</v>
+        <v>1.086008729630677</v>
       </c>
       <c r="E10">
-        <v>0.9995321385687089</v>
+        <v>0.8979712748266713</v>
       </c>
       <c r="F10">
-        <v>0.9995405607124725</v>
+        <v>0.960802998211118</v>
       </c>
       <c r="G10">
-        <v>0.9987507580145052</v>
+        <v>0.9615549879201738</v>
       </c>
       <c r="H10">
-        <v>1.001024631266064</v>
+        <v>1.157464798570174</v>
       </c>
       <c r="I10">
-        <v>0.9995345942687403</v>
+        <v>1.157464798570174</v>
       </c>
       <c r="J10">
-        <v>1.001859420038145</v>
+        <v>0.9589756628391896</v>
       </c>
       <c r="K10">
-        <v>0.9995405607124725</v>
+        <v>0.9589756628391896</v>
       </c>
       <c r="L10">
-        <v>0.9995321385687089</v>
+        <v>0.9615549879201738</v>
       </c>
       <c r="M10">
-        <v>1.000695779303427</v>
+        <v>1.059509893245174</v>
       </c>
       <c r="N10">
-        <v>1.000695779303427</v>
+        <v>1.059509893245174</v>
       </c>
       <c r="O10">
-        <v>1.000805396624306</v>
+        <v>1.068342838707008</v>
       </c>
       <c r="P10">
-        <v>1.000310706439776</v>
+        <v>1.025998483109846</v>
       </c>
       <c r="Q10">
-        <v>1.000310706439776</v>
+        <v>1.025998483109846</v>
       </c>
       <c r="R10">
-        <v>1.00011817000795</v>
+        <v>1.009242778042182</v>
       </c>
       <c r="S10">
-        <v>1.00011817000795</v>
+        <v>1.009242778042182</v>
       </c>
       <c r="T10">
-        <v>1.000040350478106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.003796408666334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.999300808436518</v>
+        <v>1.002986406072913</v>
       </c>
       <c r="D11">
-        <v>1.002921599007309</v>
+        <v>0.9947129705674862</v>
       </c>
       <c r="E11">
-        <v>0.9992522628737902</v>
+        <v>1.005736206181714</v>
       </c>
       <c r="F11">
-        <v>0.999300808436518</v>
+        <v>1.002434072735681</v>
       </c>
       <c r="G11">
-        <v>0.9979967812308826</v>
+        <v>1.002206769391763</v>
       </c>
       <c r="H11">
-        <v>1.001618117255861</v>
+        <v>0.990059161224894</v>
       </c>
       <c r="I11">
-        <v>0.9992664154666985</v>
+        <v>0.990059161224894</v>
       </c>
       <c r="J11">
-        <v>1.002921599007309</v>
+        <v>1.002986406072913</v>
       </c>
       <c r="K11">
-        <v>0.999300808436518</v>
+        <v>1.002986406072913</v>
       </c>
       <c r="L11">
-        <v>0.9992522628737902</v>
+        <v>1.002206769391763</v>
       </c>
       <c r="M11">
-        <v>1.001086930940549</v>
+        <v>0.9961329653083286</v>
       </c>
       <c r="N11">
-        <v>1.001086930940549</v>
+        <v>0.9961329653083286</v>
       </c>
       <c r="O11">
-        <v>1.001263993045653</v>
+        <v>0.9956596337280478</v>
       </c>
       <c r="P11">
-        <v>1.000491556772539</v>
+        <v>0.9984174455631902</v>
       </c>
       <c r="Q11">
-        <v>1.000491556772539</v>
+        <v>0.9984174455631901</v>
       </c>
       <c r="R11">
-        <v>1.000193869688534</v>
+        <v>0.9995596856906209</v>
       </c>
       <c r="S11">
-        <v>1.000193869688534</v>
+        <v>0.9995596856906209</v>
       </c>
       <c r="T11">
-        <v>1.000059330711843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9996892643624088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.007053913979558</v>
+        <v>0.9878664923052647</v>
       </c>
       <c r="D12">
-        <v>0.9828865237868505</v>
+        <v>1.025348232526314</v>
       </c>
       <c r="E12">
-        <v>1.002736407726977</v>
+        <v>0.9699798961473693</v>
       </c>
       <c r="F12">
-        <v>1.007053913979558</v>
+        <v>0.9884457038315799</v>
       </c>
       <c r="G12">
-        <v>1.00647468187152</v>
+        <v>0.9886840632842128</v>
       </c>
       <c r="H12">
-        <v>0.9915867832588805</v>
+        <v>1.046431707842103</v>
       </c>
       <c r="I12">
-        <v>1.003995147028768</v>
+        <v>1.046431707842103</v>
       </c>
       <c r="J12">
-        <v>0.9828865237868505</v>
+        <v>0.9878664923052647</v>
       </c>
       <c r="K12">
-        <v>1.007053913979558</v>
+        <v>0.9878664923052647</v>
       </c>
       <c r="L12">
-        <v>1.002736407726977</v>
+        <v>0.9886840632842128</v>
       </c>
       <c r="M12">
-        <v>0.9928114657569137</v>
+        <v>1.017557885563158</v>
       </c>
       <c r="N12">
-        <v>0.9928114657569137</v>
+        <v>1.017557885563158</v>
       </c>
       <c r="O12">
-        <v>0.9924032382575693</v>
+        <v>1.02015466788421</v>
       </c>
       <c r="P12">
-        <v>0.997558948497795</v>
+        <v>1.007660754477193</v>
       </c>
       <c r="Q12">
-        <v>0.997558948497795</v>
+        <v>1.007660754477193</v>
       </c>
       <c r="R12">
-        <v>0.9999326898682357</v>
+        <v>1.002712188934211</v>
       </c>
       <c r="S12">
-        <v>0.9999326898682357</v>
+        <v>1.002712188934211</v>
       </c>
       <c r="T12">
-        <v>0.9991222429420921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.001126015989474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9995844805297162</v>
+        <v>1.007735345304012</v>
       </c>
       <c r="D13">
-        <v>0.9969974653786208</v>
+        <v>0.9830956193855509</v>
       </c>
       <c r="E13">
-        <v>1.001398496851247</v>
+        <v>1.020430754131393</v>
       </c>
       <c r="F13">
-        <v>0.9995844805297162</v>
+        <v>1.007686538079082</v>
       </c>
       <c r="G13">
-        <v>1.004074859443567</v>
+        <v>1.007666454226978</v>
       </c>
       <c r="H13">
-        <v>0.997928791093718</v>
+        <v>0.9692357721763302</v>
       </c>
       <c r="I13">
-        <v>1.000869632053478</v>
+        <v>0.9692357721763302</v>
       </c>
       <c r="J13">
-        <v>0.9969974653786208</v>
+        <v>1.007735345304012</v>
       </c>
       <c r="K13">
-        <v>0.9995844805297162</v>
+        <v>1.007735345304012</v>
       </c>
       <c r="L13">
-        <v>1.001398496851247</v>
+        <v>1.007666454226978</v>
       </c>
       <c r="M13">
-        <v>0.9991979811149341</v>
+        <v>0.988451113201654</v>
       </c>
       <c r="N13">
-        <v>0.9991979811149341</v>
+        <v>0.988451113201654</v>
       </c>
       <c r="O13">
-        <v>0.9987749177745288</v>
+        <v>0.9866659485962863</v>
       </c>
       <c r="P13">
-        <v>0.9993268142531947</v>
+        <v>0.9948791905691067</v>
       </c>
       <c r="Q13">
-        <v>0.9993268142531947</v>
+        <v>0.9948791905691067</v>
       </c>
       <c r="R13">
-        <v>0.9993912308223251</v>
+        <v>0.9980932292528331</v>
       </c>
       <c r="S13">
-        <v>0.9993912308223251</v>
+        <v>0.9980932292528331</v>
       </c>
       <c r="T13">
-        <v>1.000142287558391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9993084138838911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.001149827931247</v>
+        <v>0.9290452899999994</v>
       </c>
       <c r="D14">
-        <v>0.9795863095937261</v>
+        <v>1.1486006</v>
       </c>
       <c r="E14">
-        <v>1.007299872711343</v>
+        <v>0.8238079400000013</v>
       </c>
       <c r="F14">
-        <v>1.001149827931247</v>
+        <v>0.9322738400000001</v>
       </c>
       <c r="G14">
-        <v>1.020637758745816</v>
+        <v>0.9336024600000015</v>
       </c>
       <c r="H14">
-        <v>0.987349171708401</v>
+        <v>1.2721004</v>
       </c>
       <c r="I14">
-        <v>1.005506844619889</v>
+        <v>1.2721004</v>
       </c>
       <c r="J14">
-        <v>0.9795863095937261</v>
+        <v>0.9290452899999994</v>
       </c>
       <c r="K14">
-        <v>1.001149827931247</v>
+        <v>0.9290452899999994</v>
       </c>
       <c r="L14">
-        <v>1.007299872711343</v>
+        <v>0.9336024600000015</v>
       </c>
       <c r="M14">
-        <v>0.9934430911525346</v>
+        <v>1.102851430000001</v>
       </c>
       <c r="N14">
-        <v>0.9934430911525346</v>
+        <v>1.102851430000001</v>
       </c>
       <c r="O14">
-        <v>0.9914117846711568</v>
+        <v>1.118101153333334</v>
       </c>
       <c r="P14">
-        <v>0.9960120034121053</v>
+        <v>1.04491605</v>
       </c>
       <c r="Q14">
-        <v>0.9960120034121053</v>
+        <v>1.04491605</v>
       </c>
       <c r="R14">
-        <v>0.9972964595418907</v>
+        <v>1.01594836</v>
       </c>
       <c r="S14">
-        <v>0.9972964595418907</v>
+        <v>1.01594836</v>
       </c>
       <c r="T14">
-        <v>1.000254964218404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.006571755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.003363385039278</v>
+        <v>1.0396018</v>
       </c>
       <c r="D15">
-        <v>0.9930553304819052</v>
+        <v>0.94244704</v>
       </c>
       <c r="E15">
-        <v>1.000832161027932</v>
+        <v>1.0542662</v>
       </c>
       <c r="F15">
-        <v>1.003363385039278</v>
+        <v>1.0268719</v>
       </c>
       <c r="G15">
-        <v>1.001736962037465</v>
+        <v>1.0216333</v>
       </c>
       <c r="H15">
-        <v>0.9967662297887193</v>
+        <v>0.88779747</v>
       </c>
       <c r="I15">
-        <v>1.001570122837781</v>
+        <v>0.88779747</v>
       </c>
       <c r="J15">
-        <v>0.9930553304819052</v>
+        <v>1.0396018</v>
       </c>
       <c r="K15">
-        <v>1.003363385039278</v>
+        <v>1.0396018</v>
       </c>
       <c r="L15">
-        <v>1.000832161027932</v>
+        <v>1.0216333</v>
       </c>
       <c r="M15">
-        <v>0.9969437457549185</v>
+        <v>0.954715385</v>
       </c>
       <c r="N15">
-        <v>0.9969437457549185</v>
+        <v>0.954715385</v>
       </c>
       <c r="O15">
-        <v>0.9968845737661854</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P15">
-        <v>0.9990836255163714</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q15">
-        <v>0.9990836255163714</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R15">
-        <v>1.000153565397098</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S15">
-        <v>1.000153565397098</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T15">
-        <v>0.9995540318688466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9954362849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999835290046202</v>
+        <v>1.0441874</v>
       </c>
       <c r="D16">
-        <v>1.000025462241912</v>
+        <v>0.9052794199999999</v>
       </c>
       <c r="E16">
-        <v>0.9999992510084119</v>
+        <v>1.1135072</v>
       </c>
       <c r="F16">
-        <v>0.9999835290046202</v>
+        <v>1.0431148</v>
       </c>
       <c r="G16">
-        <v>1.000000989205963</v>
+        <v>1.0426733</v>
       </c>
       <c r="H16">
-        <v>1.000010366926103</v>
+        <v>0.82714368</v>
       </c>
       <c r="I16">
-        <v>0.9999946669034259</v>
+        <v>0.82714368</v>
       </c>
       <c r="J16">
-        <v>1.000025462241912</v>
+        <v>1.0441874</v>
       </c>
       <c r="K16">
-        <v>0.9999835290046202</v>
+        <v>1.0441874</v>
       </c>
       <c r="L16">
-        <v>0.9999992510084119</v>
+        <v>1.0426733</v>
       </c>
       <c r="M16">
-        <v>1.000012356625162</v>
+        <v>0.93490849</v>
       </c>
       <c r="N16">
-        <v>1.000012356625162</v>
+        <v>0.93490849</v>
       </c>
       <c r="O16">
-        <v>1.000011693392142</v>
+        <v>0.9250321333333332</v>
       </c>
       <c r="P16">
-        <v>1.000002747418315</v>
+        <v>0.9713347933333333</v>
       </c>
       <c r="Q16">
-        <v>1.000002747418315</v>
+        <v>0.9713347933333333</v>
       </c>
       <c r="R16">
-        <v>0.9999979428148911</v>
+        <v>0.989547945</v>
       </c>
       <c r="S16">
-        <v>0.9999979428148911</v>
+        <v>0.989547945</v>
       </c>
       <c r="T16">
-        <v>1.000002377548406</v>
+        <v>0.9959842999999999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999155204980854</v>
+        <v>1.0446187</v>
       </c>
       <c r="D17">
-        <v>1.000376577653839</v>
+        <v>0.8937707400000001</v>
       </c>
       <c r="E17">
-        <v>0.9999004887550247</v>
+        <v>1.1329903</v>
       </c>
       <c r="F17">
-        <v>0.9999155204980854</v>
+        <v>1.0480919</v>
       </c>
       <c r="G17">
-        <v>0.9997317653585244</v>
+        <v>1.0495212</v>
       </c>
       <c r="H17">
-        <v>1.000210597818986</v>
+        <v>0.80891874</v>
       </c>
       <c r="I17">
-        <v>0.9999048706370485</v>
+        <v>0.80891874</v>
       </c>
       <c r="J17">
-        <v>1.000376577653839</v>
+        <v>1.0446187</v>
       </c>
       <c r="K17">
-        <v>0.9999155204980854</v>
+        <v>1.0446187</v>
       </c>
       <c r="L17">
-        <v>0.9999004887550247</v>
+        <v>1.0495212</v>
       </c>
       <c r="M17">
-        <v>1.000138533204432</v>
+        <v>0.92921997</v>
       </c>
       <c r="N17">
-        <v>1.000138533204432</v>
+        <v>0.92921997</v>
       </c>
       <c r="O17">
-        <v>1.000162554742617</v>
+        <v>0.91740356</v>
       </c>
       <c r="P17">
-        <v>1.00006419563565</v>
+        <v>0.9676862133333334</v>
       </c>
       <c r="Q17">
-        <v>1.00006419563565</v>
+        <v>0.9676862133333334</v>
       </c>
       <c r="R17">
-        <v>1.000027026851259</v>
+        <v>0.9869193350000001</v>
       </c>
       <c r="S17">
-        <v>1.000027026851259</v>
+        <v>0.9869193350000001</v>
       </c>
       <c r="T17">
-        <v>1.000006636786918</v>
+        <v>0.9963185966666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9996469018056772</v>
+        <v>0.9766466646575338</v>
       </c>
       <c r="D18">
-        <v>1.00136007585925</v>
+        <v>1.054093989589042</v>
       </c>
       <c r="E18">
-        <v>0.99966724949676</v>
+        <v>0.9330080180821918</v>
       </c>
       <c r="F18">
-        <v>0.9996469018056772</v>
+        <v>0.9754771931506846</v>
       </c>
       <c r="G18">
-        <v>0.999116536917011</v>
+        <v>0.9749959169863011</v>
       </c>
       <c r="H18">
-        <v>1.000743334369751</v>
+        <v>1.097658108082192</v>
       </c>
       <c r="I18">
-        <v>0.9996613188861821</v>
+        <v>1.097658108082192</v>
       </c>
       <c r="J18">
-        <v>1.00136007585925</v>
+        <v>0.9766466646575338</v>
       </c>
       <c r="K18">
-        <v>0.9996469018056772</v>
+        <v>0.9766466646575338</v>
       </c>
       <c r="L18">
-        <v>0.99966724949676</v>
+        <v>0.9749959169863011</v>
       </c>
       <c r="M18">
-        <v>1.000513662678005</v>
+        <v>1.036327012534247</v>
       </c>
       <c r="N18">
-        <v>1.000513662678005</v>
+        <v>1.036327012534247</v>
       </c>
       <c r="O18">
-        <v>1.000590219908587</v>
+        <v>1.042249338219178</v>
       </c>
       <c r="P18">
-        <v>1.000224742387229</v>
+        <v>1.016433563242009</v>
       </c>
       <c r="Q18">
-        <v>1.000224742387229</v>
+        <v>1.016433563242009</v>
       </c>
       <c r="R18">
-        <v>1.000080282241841</v>
+        <v>1.00648683859589</v>
       </c>
       <c r="S18">
-        <v>1.000080282241841</v>
+        <v>1.00648683859589</v>
       </c>
       <c r="T18">
-        <v>1.000032569555772</v>
+        <v>1.001979981757991</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9991448585331815</v>
+        <v>1.004473282105263</v>
       </c>
       <c r="D19">
-        <v>1.00320344166459</v>
+        <v>0.9812723899999998</v>
       </c>
       <c r="E19">
-        <v>0.9992292975362419</v>
+        <v>1.027356517894737</v>
       </c>
       <c r="F19">
-        <v>0.9991448585331815</v>
+        <v>1.008298746842105</v>
       </c>
       <c r="G19">
-        <v>0.9979608660151011</v>
+        <v>1.00987299631579</v>
       </c>
       <c r="H19">
-        <v>1.001742355447337</v>
+        <v>0.9682218842105264</v>
       </c>
       <c r="I19">
-        <v>0.9992046799641616</v>
+        <v>0.9682218842105264</v>
       </c>
       <c r="J19">
-        <v>1.00320344166459</v>
+        <v>1.004473282105263</v>
       </c>
       <c r="K19">
-        <v>0.9991448585331815</v>
+        <v>1.004473282105263</v>
       </c>
       <c r="L19">
-        <v>0.9992292975362419</v>
+        <v>1.00987299631579</v>
       </c>
       <c r="M19">
-        <v>1.001216369600416</v>
+        <v>0.9890474402631579</v>
       </c>
       <c r="N19">
-        <v>1.001216369600416</v>
+        <v>0.9890474402631579</v>
       </c>
       <c r="O19">
-        <v>1.001391698216056</v>
+        <v>0.9864557568421052</v>
       </c>
       <c r="P19">
-        <v>1.000525865911338</v>
+        <v>0.9941893875438597</v>
       </c>
       <c r="Q19">
-        <v>1.000525865911338</v>
+        <v>0.9941893875438597</v>
       </c>
       <c r="R19">
-        <v>1.000180614066799</v>
+        <v>0.9967603611842106</v>
       </c>
       <c r="S19">
-        <v>1.000180614066799</v>
+        <v>0.9967603611842106</v>
       </c>
       <c r="T19">
-        <v>1.000080916526769</v>
+        <v>0.9999159695614036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.014123868421053</v>
+      </c>
+      <c r="D20">
+        <v>0.9687706178947367</v>
+      </c>
+      <c r="E20">
+        <v>1.037935995789474</v>
+      </c>
+      <c r="F20">
+        <v>1.014191411578948</v>
+      </c>
+      <c r="G20">
+        <v>1.014219183157895</v>
+      </c>
+      <c r="H20">
+        <v>0.9432594063157896</v>
+      </c>
+      <c r="I20">
+        <v>0.9432594063157896</v>
+      </c>
+      <c r="J20">
+        <v>1.014123868421053</v>
+      </c>
+      <c r="K20">
+        <v>1.014123868421053</v>
+      </c>
+      <c r="L20">
+        <v>1.014219183157895</v>
+      </c>
+      <c r="M20">
+        <v>0.9787392947368423</v>
+      </c>
+      <c r="N20">
+        <v>0.9787392947368423</v>
+      </c>
+      <c r="O20">
+        <v>0.9754164024561405</v>
+      </c>
+      <c r="P20">
+        <v>0.9905341526315791</v>
+      </c>
+      <c r="Q20">
+        <v>0.9905341526315791</v>
+      </c>
+      <c r="R20">
+        <v>0.9964315815789474</v>
+      </c>
+      <c r="S20">
+        <v>0.9964315815789474</v>
+      </c>
+      <c r="T20">
+        <v>0.998750080526316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.001149827931247</v>
+      </c>
+      <c r="D21">
+        <v>0.987349171708401</v>
+      </c>
+      <c r="E21">
+        <v>1.020637758745816</v>
+      </c>
+      <c r="F21">
+        <v>1.005506844619889</v>
+      </c>
+      <c r="G21">
+        <v>1.007299872711343</v>
+      </c>
+      <c r="H21">
+        <v>0.9795863095937261</v>
+      </c>
+      <c r="I21">
+        <v>0.9795863095937261</v>
+      </c>
+      <c r="J21">
+        <v>1.001149827931247</v>
+      </c>
+      <c r="K21">
+        <v>1.001149827931247</v>
+      </c>
+      <c r="L21">
+        <v>1.007299872711343</v>
+      </c>
+      <c r="M21">
+        <v>0.9934430911525346</v>
+      </c>
+      <c r="N21">
+        <v>0.9934430911525346</v>
+      </c>
+      <c r="O21">
+        <v>0.9914117846711568</v>
+      </c>
+      <c r="P21">
+        <v>0.9960120034121053</v>
+      </c>
+      <c r="Q21">
+        <v>0.9960120034121053</v>
+      </c>
+      <c r="R21">
+        <v>0.9972964595418906</v>
+      </c>
+      <c r="S21">
+        <v>0.9972964595418906</v>
+      </c>
+      <c r="T21">
+        <v>1.000254964218404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.003363385039278</v>
+      </c>
+      <c r="D22">
+        <v>0.9967662297887192</v>
+      </c>
+      <c r="E22">
+        <v>1.001736962037465</v>
+      </c>
+      <c r="F22">
+        <v>1.001570122837781</v>
+      </c>
+      <c r="G22">
+        <v>1.000832161027932</v>
+      </c>
+      <c r="H22">
+        <v>0.993055330481905</v>
+      </c>
+      <c r="I22">
+        <v>0.993055330481905</v>
+      </c>
+      <c r="J22">
+        <v>1.003363385039278</v>
+      </c>
+      <c r="K22">
+        <v>1.003363385039278</v>
+      </c>
+      <c r="L22">
+        <v>1.000832161027932</v>
+      </c>
+      <c r="M22">
+        <v>0.9969437457549183</v>
+      </c>
+      <c r="N22">
+        <v>0.9969437457549183</v>
+      </c>
+      <c r="O22">
+        <v>0.9968845737661853</v>
+      </c>
+      <c r="P22">
+        <v>0.9990836255163714</v>
+      </c>
+      <c r="Q22">
+        <v>0.9990836255163714</v>
+      </c>
+      <c r="R22">
+        <v>1.000153565397098</v>
+      </c>
+      <c r="S22">
+        <v>1.000153565397098</v>
+      </c>
+      <c r="T22">
+        <v>0.9995540318688466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.007053913979558</v>
+      </c>
+      <c r="D23">
+        <v>0.9915867832588804</v>
+      </c>
+      <c r="E23">
+        <v>1.00647468187152</v>
+      </c>
+      <c r="F23">
+        <v>1.003995147028768</v>
+      </c>
+      <c r="G23">
+        <v>1.002736407726977</v>
+      </c>
+      <c r="H23">
+        <v>0.9828865237868505</v>
+      </c>
+      <c r="I23">
+        <v>0.9828865237868505</v>
+      </c>
+      <c r="J23">
+        <v>1.007053913979558</v>
+      </c>
+      <c r="K23">
+        <v>1.007053913979558</v>
+      </c>
+      <c r="L23">
+        <v>1.002736407726977</v>
+      </c>
+      <c r="M23">
+        <v>0.9928114657569137</v>
+      </c>
+      <c r="N23">
+        <v>0.9928114657569137</v>
+      </c>
+      <c r="O23">
+        <v>0.9924032382575693</v>
+      </c>
+      <c r="P23">
+        <v>0.997558948497795</v>
+      </c>
+      <c r="Q23">
+        <v>0.997558948497795</v>
+      </c>
+      <c r="R23">
+        <v>0.9999326898682357</v>
+      </c>
+      <c r="S23">
+        <v>0.9999326898682357</v>
+      </c>
+      <c r="T23">
+        <v>0.9991222429420921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9995844805297162</v>
+      </c>
+      <c r="D24">
+        <v>0.997928791093718</v>
+      </c>
+      <c r="E24">
+        <v>1.004074859443568</v>
+      </c>
+      <c r="F24">
+        <v>1.000869632053478</v>
+      </c>
+      <c r="G24">
+        <v>1.001398496851247</v>
+      </c>
+      <c r="H24">
+        <v>0.9969974653786208</v>
+      </c>
+      <c r="I24">
+        <v>0.9969974653786208</v>
+      </c>
+      <c r="J24">
+        <v>0.9995844805297162</v>
+      </c>
+      <c r="K24">
+        <v>0.9995844805297162</v>
+      </c>
+      <c r="L24">
+        <v>1.001398496851247</v>
+      </c>
+      <c r="M24">
+        <v>0.9991979811149341</v>
+      </c>
+      <c r="N24">
+        <v>0.9991979811149341</v>
+      </c>
+      <c r="O24">
+        <v>0.9987749177745288</v>
+      </c>
+      <c r="P24">
+        <v>0.9993268142531947</v>
+      </c>
+      <c r="Q24">
+        <v>0.9993268142531947</v>
+      </c>
+      <c r="R24">
+        <v>0.9993912308223251</v>
+      </c>
+      <c r="S24">
+        <v>0.9993912308223251</v>
+      </c>
+      <c r="T24">
+        <v>1.000142287558391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.023315822938659</v>
+      </c>
+      <c r="D25">
+        <v>0.9515355780667115</v>
+      </c>
+      <c r="E25">
+        <v>1.057261670907785</v>
+      </c>
+      <c r="F25">
+        <v>1.022097384447051</v>
+      </c>
+      <c r="G25">
+        <v>1.021595968807713</v>
+      </c>
+      <c r="H25">
+        <v>0.9111591865095895</v>
+      </c>
+      <c r="I25">
+        <v>0.9111591865095895</v>
+      </c>
+      <c r="J25">
+        <v>1.023315822938659</v>
+      </c>
+      <c r="K25">
+        <v>1.023315822938659</v>
+      </c>
+      <c r="L25">
+        <v>1.021595968807713</v>
+      </c>
+      <c r="M25">
+        <v>0.9663775776586512</v>
+      </c>
+      <c r="N25">
+        <v>0.9663775776586512</v>
+      </c>
+      <c r="O25">
+        <v>0.961430244461338</v>
+      </c>
+      <c r="P25">
+        <v>0.9853569927519871</v>
+      </c>
+      <c r="Q25">
+        <v>0.9853569927519871</v>
+      </c>
+      <c r="R25">
+        <v>0.994846700298655</v>
+      </c>
+      <c r="S25">
+        <v>0.994846700298655</v>
+      </c>
+      <c r="T25">
+        <v>0.9978276019462514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.005237957265472</v>
+      </c>
+      <c r="D26">
+        <v>0.9873266986581259</v>
+      </c>
+      <c r="E26">
+        <v>1.015964060856005</v>
+      </c>
+      <c r="F26">
+        <v>1.005732926950087</v>
+      </c>
+      <c r="G26">
+        <v>1.005936624577151</v>
+      </c>
+      <c r="H26">
+        <v>0.9772516159166301</v>
+      </c>
+      <c r="I26">
+        <v>0.9772516159166301</v>
+      </c>
+      <c r="J26">
+        <v>1.005237957265472</v>
+      </c>
+      <c r="K26">
+        <v>1.005237957265472</v>
+      </c>
+      <c r="L26">
+        <v>1.005936624577151</v>
+      </c>
+      <c r="M26">
+        <v>0.9915941202468908</v>
+      </c>
+      <c r="N26">
+        <v>0.9915941202468908</v>
+      </c>
+      <c r="O26">
+        <v>0.9901716463839692</v>
+      </c>
+      <c r="P26">
+        <v>0.996142065919751</v>
+      </c>
+      <c r="Q26">
+        <v>0.9961420659197512</v>
+      </c>
+      <c r="R26">
+        <v>0.9984160387561813</v>
+      </c>
+      <c r="S26">
+        <v>0.9984160387561813</v>
+      </c>
+      <c r="T26">
+        <v>0.9995749807039119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9960563408734219</v>
+      </c>
+      <c r="D27">
+        <v>1.008846949935105</v>
+      </c>
+      <c r="E27">
+        <v>0.9891868533126243</v>
+      </c>
+      <c r="F27">
+        <v>0.9959827671935524</v>
+      </c>
+      <c r="G27">
+        <v>0.9959524877987912</v>
+      </c>
+      <c r="H27">
+        <v>1.016041687649432</v>
+      </c>
+      <c r="I27">
+        <v>1.016041687649432</v>
+      </c>
+      <c r="J27">
+        <v>0.9960563408734219</v>
+      </c>
+      <c r="K27">
+        <v>0.9960563408734219</v>
+      </c>
+      <c r="L27">
+        <v>0.9959524877987912</v>
+      </c>
+      <c r="M27">
+        <v>1.005997087724112</v>
+      </c>
+      <c r="N27">
+        <v>1.005997087724112</v>
+      </c>
+      <c r="O27">
+        <v>1.006947041794443</v>
+      </c>
+      <c r="P27">
+        <v>1.002683505440548</v>
+      </c>
+      <c r="Q27">
+        <v>1.002683505440548</v>
+      </c>
+      <c r="R27">
+        <v>1.001026714298767</v>
+      </c>
+      <c r="S27">
+        <v>1.001026714298767</v>
+      </c>
+      <c r="T27">
+        <v>1.000344514460488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.004182081149559</v>
+      </c>
+      <c r="D28">
+        <v>0.9897399343965236</v>
+      </c>
+      <c r="E28">
+        <v>1.012991589203242</v>
+      </c>
+      <c r="F28">
+        <v>1.004638174053061</v>
+      </c>
+      <c r="G28">
+        <v>1.004825861387924</v>
+      </c>
+      <c r="H28">
+        <v>0.9816162301050174</v>
+      </c>
+      <c r="I28">
+        <v>0.9816162301050174</v>
+      </c>
+      <c r="J28">
+        <v>1.004182081149559</v>
+      </c>
+      <c r="K28">
+        <v>1.004182081149559</v>
+      </c>
+      <c r="L28">
+        <v>1.004825861387924</v>
+      </c>
+      <c r="M28">
+        <v>0.9932210457464707</v>
+      </c>
+      <c r="N28">
+        <v>0.9932210457464707</v>
+      </c>
+      <c r="O28">
+        <v>0.9920606752964884</v>
+      </c>
+      <c r="P28">
+        <v>0.9968747242141668</v>
+      </c>
+      <c r="Q28">
+        <v>0.9968747242141669</v>
+      </c>
+      <c r="R28">
+        <v>0.9987015634480149</v>
+      </c>
+      <c r="S28">
+        <v>0.9987015634480149</v>
+      </c>
+      <c r="T28">
+        <v>0.9996656450492211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.016762678595791</v>
+      </c>
+      <c r="D29">
+        <v>0.9629867537674265</v>
+      </c>
+      <c r="E29">
+        <v>1.044935426799107</v>
+      </c>
+      <c r="F29">
+        <v>1.01682092802839</v>
+      </c>
+      <c r="G29">
+        <v>1.01684490945776</v>
+      </c>
+      <c r="H29">
+        <v>0.9327378078663585</v>
+      </c>
+      <c r="I29">
+        <v>0.9327378078663585</v>
+      </c>
+      <c r="J29">
+        <v>1.016762678595791</v>
+      </c>
+      <c r="K29">
+        <v>1.016762678595791</v>
+      </c>
+      <c r="L29">
+        <v>1.01684490945776</v>
+      </c>
+      <c r="M29">
+        <v>0.9747913586620593</v>
+      </c>
+      <c r="N29">
+        <v>0.9747913586620593</v>
+      </c>
+      <c r="O29">
+        <v>0.9708564903638485</v>
+      </c>
+      <c r="P29">
+        <v>0.98878179863997</v>
+      </c>
+      <c r="Q29">
+        <v>0.98878179863997</v>
+      </c>
+      <c r="R29">
+        <v>0.9957770186289252</v>
+      </c>
+      <c r="S29">
+        <v>0.9957770186289252</v>
+      </c>
+      <c r="T29">
+        <v>0.9985147507524722</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00590391216463</v>
+        <v>0.989768963304691</v>
       </c>
       <c r="D4">
-        <v>0.9869911290011703</v>
+        <v>1.021642812849639</v>
       </c>
       <c r="E4">
-        <v>1.015778944524004</v>
+        <v>0.974219785300956</v>
       </c>
       <c r="F4">
-        <v>1.005912640220035</v>
+        <v>0.9901415350058251</v>
       </c>
       <c r="G4">
-        <v>1.005916228033319</v>
+        <v>0.9902948576261429</v>
       </c>
       <c r="H4">
-        <v>0.9763526884281756</v>
+        <v>1.039571852010814</v>
       </c>
       <c r="I4">
-        <v>0.9763526884281756</v>
+        <v>1.039571852010814</v>
       </c>
       <c r="J4">
-        <v>1.00590391216463</v>
+        <v>0.989768963304691</v>
       </c>
       <c r="K4">
-        <v>1.00590391216463</v>
+        <v>0.989768963304691</v>
       </c>
       <c r="L4">
-        <v>1.005916228033319</v>
+        <v>0.9902948576261429</v>
       </c>
       <c r="M4">
-        <v>0.9911344582307473</v>
+        <v>1.014933354818478</v>
       </c>
       <c r="N4">
-        <v>0.9911344582307473</v>
+        <v>1.014933354818478</v>
       </c>
       <c r="O4">
-        <v>0.989753348487555</v>
+        <v>1.017169840828865</v>
       </c>
       <c r="P4">
-        <v>0.9960576095420416</v>
+        <v>1.006545224313883</v>
       </c>
       <c r="Q4">
-        <v>0.9960576095420416</v>
+        <v>1.006545224313883</v>
       </c>
       <c r="R4">
-        <v>0.9985191851976887</v>
+        <v>1.002351159061585</v>
       </c>
       <c r="S4">
-        <v>0.9985191851976887</v>
+        <v>1.002351159061585</v>
       </c>
       <c r="T4">
-        <v>0.9994759237285554</v>
+        <v>1.000939967683011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9884957780619611</v>
+        <v>1.020273807195113</v>
       </c>
       <c r="D5">
-        <v>1.024484148011526</v>
+        <v>0.9550412447610166</v>
       </c>
       <c r="E5">
-        <v>0.970754612752162</v>
+        <v>1.05468219723803</v>
       </c>
       <c r="F5">
-        <v>0.988850989971181</v>
+        <v>1.020427236804369</v>
       </c>
       <c r="G5">
-        <v>0.9889971679250731</v>
+        <v>1.020490348945799</v>
       </c>
       <c r="H5">
-        <v>1.044727603429395</v>
+        <v>0.9183479242779776</v>
       </c>
       <c r="I5">
-        <v>1.044727603429395</v>
+        <v>0.9183479242779776</v>
       </c>
       <c r="J5">
-        <v>0.9884957780619611</v>
+        <v>1.020273807195113</v>
       </c>
       <c r="K5">
-        <v>0.9884957780619611</v>
+        <v>1.020273807195113</v>
       </c>
       <c r="L5">
-        <v>0.9889971679250731</v>
+        <v>1.020490348945799</v>
       </c>
       <c r="M5">
-        <v>1.016862385677234</v>
+        <v>0.9694191366118883</v>
       </c>
       <c r="N5">
-        <v>1.016862385677234</v>
+        <v>0.9694191366118883</v>
       </c>
       <c r="O5">
-        <v>1.019402973121998</v>
+        <v>0.9646265059949309</v>
       </c>
       <c r="P5">
-        <v>1.007406849805476</v>
+        <v>0.9863706934729631</v>
       </c>
       <c r="Q5">
-        <v>1.007406849805476</v>
+        <v>0.9863706934729634</v>
       </c>
       <c r="R5">
-        <v>1.002679081869598</v>
+        <v>0.9948464719035008</v>
       </c>
       <c r="S5">
-        <v>1.002679081869598</v>
+        <v>0.9948464719035008</v>
       </c>
       <c r="T5">
-        <v>1.001051716691883</v>
+        <v>0.9982104598703843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9596086951894197</v>
+        <v>1.00590391216463</v>
       </c>
       <c r="D6">
-        <v>1.084744695954615</v>
+        <v>0.9869911290011703</v>
       </c>
       <c r="E6">
-        <v>0.8994360308700694</v>
+        <v>1.015778944524004</v>
       </c>
       <c r="F6">
-        <v>0.9613806545214394</v>
+        <v>1.005912640220035</v>
       </c>
       <c r="G6">
-        <v>0.9621098557463517</v>
+        <v>1.005916228033319</v>
       </c>
       <c r="H6">
-        <v>1.155133664892939</v>
+        <v>0.9763526884281756</v>
       </c>
       <c r="I6">
-        <v>1.155133664892939</v>
+        <v>0.9763526884281756</v>
       </c>
       <c r="J6">
-        <v>0.9596086951894197</v>
+        <v>1.00590391216463</v>
       </c>
       <c r="K6">
-        <v>0.9596086951894197</v>
+        <v>1.00590391216463</v>
       </c>
       <c r="L6">
-        <v>0.9621098557463517</v>
+        <v>1.005916228033319</v>
       </c>
       <c r="M6">
-        <v>1.058621760319645</v>
+        <v>0.9911344582307473</v>
       </c>
       <c r="N6">
-        <v>1.058621760319645</v>
+        <v>0.9911344582307473</v>
       </c>
       <c r="O6">
-        <v>1.067329405531302</v>
+        <v>0.989753348487555</v>
       </c>
       <c r="P6">
-        <v>1.025617405276237</v>
+        <v>0.9960576095420416</v>
       </c>
       <c r="Q6">
-        <v>1.025617405276237</v>
+        <v>0.9960576095420416</v>
       </c>
       <c r="R6">
-        <v>1.009115227754533</v>
+        <v>0.9985191851976887</v>
       </c>
       <c r="S6">
-        <v>1.009115227754533</v>
+        <v>0.9985191851976887</v>
       </c>
       <c r="T6">
-        <v>1.003735599529139</v>
+        <v>0.9994759237285554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9989716097398963</v>
+        <v>0.9884957780619611</v>
       </c>
       <c r="D7">
-        <v>1.00240054535893</v>
+        <v>1.024484148011526</v>
       </c>
       <c r="E7">
-        <v>0.9970178917738977</v>
+        <v>0.970754612752162</v>
       </c>
       <c r="F7">
-        <v>0.998912167531524</v>
+        <v>0.988850989971181</v>
       </c>
       <c r="G7">
-        <v>0.9988877056822189</v>
+        <v>0.9889971679250731</v>
       </c>
       <c r="H7">
-        <v>1.004329320543428</v>
+        <v>1.044727603429395</v>
       </c>
       <c r="I7">
-        <v>1.004329320543428</v>
+        <v>1.044727603429395</v>
       </c>
       <c r="J7">
-        <v>0.9989716097398963</v>
+        <v>0.9884957780619611</v>
       </c>
       <c r="K7">
-        <v>0.9989716097398963</v>
+        <v>0.9884957780619611</v>
       </c>
       <c r="L7">
-        <v>0.9988877056822189</v>
+        <v>0.9889971679250731</v>
       </c>
       <c r="M7">
-        <v>1.001608513112823</v>
+        <v>1.016862385677234</v>
       </c>
       <c r="N7">
-        <v>1.001608513112823</v>
+        <v>1.016862385677234</v>
       </c>
       <c r="O7">
-        <v>1.001872523861526</v>
+        <v>1.019402973121998</v>
       </c>
       <c r="P7">
-        <v>1.000729545321848</v>
+        <v>1.007406849805476</v>
       </c>
       <c r="Q7">
-        <v>1.000729545321848</v>
+        <v>1.007406849805476</v>
       </c>
       <c r="R7">
-        <v>1.00029006142636</v>
+        <v>1.002679081869598</v>
       </c>
       <c r="S7">
-        <v>1.00029006142636</v>
+        <v>1.002679081869598</v>
       </c>
       <c r="T7">
-        <v>1.000086540104983</v>
+        <v>1.001051716691883</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999155204980854</v>
+        <v>0.9596086951894197</v>
       </c>
       <c r="D8">
-        <v>1.000210597818986</v>
+        <v>1.084744695954615</v>
       </c>
       <c r="E8">
-        <v>0.9997317653585244</v>
+        <v>0.8994360308700694</v>
       </c>
       <c r="F8">
-        <v>0.9999048706370485</v>
+        <v>0.9613806545214394</v>
       </c>
       <c r="G8">
-        <v>0.9999004887550246</v>
+        <v>0.9621098557463517</v>
       </c>
       <c r="H8">
-        <v>1.000376577653839</v>
+        <v>1.155133664892939</v>
       </c>
       <c r="I8">
-        <v>1.000376577653839</v>
+        <v>1.155133664892939</v>
       </c>
       <c r="J8">
-        <v>0.9999155204980854</v>
+        <v>0.9596086951894197</v>
       </c>
       <c r="K8">
-        <v>0.9999155204980854</v>
+        <v>0.9596086951894197</v>
       </c>
       <c r="L8">
-        <v>0.9999004887550246</v>
+        <v>0.9621098557463517</v>
       </c>
       <c r="M8">
-        <v>1.000138533204432</v>
+        <v>1.058621760319645</v>
       </c>
       <c r="N8">
-        <v>1.000138533204432</v>
+        <v>1.058621760319645</v>
       </c>
       <c r="O8">
-        <v>1.000162554742617</v>
+        <v>1.067329405531302</v>
       </c>
       <c r="P8">
-        <v>1.00006419563565</v>
+        <v>1.025617405276237</v>
       </c>
       <c r="Q8">
-        <v>1.00006419563565</v>
+        <v>1.025617405276237</v>
       </c>
       <c r="R8">
-        <v>1.000027026851259</v>
+        <v>1.009115227754533</v>
       </c>
       <c r="S8">
-        <v>1.000027026851259</v>
+        <v>1.009115227754533</v>
       </c>
       <c r="T8">
-        <v>1.000006636786918</v>
+        <v>1.003735599529139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9979669448376045</v>
+        <v>0.9989716097398963</v>
       </c>
       <c r="D9">
-        <v>1.00465459670126</v>
+        <v>1.00240054535893</v>
       </c>
       <c r="E9">
-        <v>0.9942627633005213</v>
+        <v>0.9970178917738977</v>
       </c>
       <c r="F9">
-        <v>0.9978886512659014</v>
+        <v>0.998912167531524</v>
       </c>
       <c r="G9">
-        <v>0.9978564328247085</v>
+        <v>0.9988877056822189</v>
       </c>
       <c r="H9">
-        <v>1.008416400787871</v>
+        <v>1.004329320543428</v>
       </c>
       <c r="I9">
-        <v>1.008416400787871</v>
+        <v>1.004329320543428</v>
       </c>
       <c r="J9">
-        <v>0.9979669448376045</v>
+        <v>0.9989716097398963</v>
       </c>
       <c r="K9">
-        <v>0.9979669448376045</v>
+        <v>0.9989716097398963</v>
       </c>
       <c r="L9">
-        <v>0.9978564328247085</v>
+        <v>0.9988877056822189</v>
       </c>
       <c r="M9">
-        <v>1.00313641680629</v>
+        <v>1.001608513112823</v>
       </c>
       <c r="N9">
-        <v>1.00313641680629</v>
+        <v>1.001608513112823</v>
       </c>
       <c r="O9">
-        <v>1.00364247677128</v>
+        <v>1.001872523861526</v>
       </c>
       <c r="P9">
-        <v>1.001413259483395</v>
+        <v>1.000729545321848</v>
       </c>
       <c r="Q9">
-        <v>1.001413259483395</v>
+        <v>1.000729545321848</v>
       </c>
       <c r="R9">
-        <v>1.000551680821947</v>
+        <v>1.00029006142636</v>
       </c>
       <c r="S9">
-        <v>1.000551680821947</v>
+        <v>1.00029006142636</v>
       </c>
       <c r="T9">
-        <v>1.000174298286311</v>
+        <v>1.000086540104983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9589756628391896</v>
+        <v>0.9999155204980854</v>
       </c>
       <c r="D10">
-        <v>1.086008729630677</v>
+        <v>1.000210597818986</v>
       </c>
       <c r="E10">
-        <v>0.8979712748266713</v>
+        <v>0.9997317653585244</v>
       </c>
       <c r="F10">
-        <v>0.960802998211118</v>
+        <v>0.9999048706370485</v>
       </c>
       <c r="G10">
-        <v>0.9615549879201738</v>
+        <v>0.9999004887550246</v>
       </c>
       <c r="H10">
-        <v>1.157464798570174</v>
+        <v>1.000376577653839</v>
       </c>
       <c r="I10">
-        <v>1.157464798570174</v>
+        <v>1.000376577653839</v>
       </c>
       <c r="J10">
-        <v>0.9589756628391896</v>
+        <v>0.9999155204980854</v>
       </c>
       <c r="K10">
-        <v>0.9589756628391896</v>
+        <v>0.9999155204980854</v>
       </c>
       <c r="L10">
-        <v>0.9615549879201738</v>
+        <v>0.9999004887550246</v>
       </c>
       <c r="M10">
-        <v>1.059509893245174</v>
+        <v>1.000138533204432</v>
       </c>
       <c r="N10">
-        <v>1.059509893245174</v>
+        <v>1.000138533204432</v>
       </c>
       <c r="O10">
-        <v>1.068342838707008</v>
+        <v>1.000162554742617</v>
       </c>
       <c r="P10">
-        <v>1.025998483109846</v>
+        <v>1.00006419563565</v>
       </c>
       <c r="Q10">
-        <v>1.025998483109846</v>
+        <v>1.00006419563565</v>
       </c>
       <c r="R10">
-        <v>1.009242778042182</v>
+        <v>1.000027026851259</v>
       </c>
       <c r="S10">
-        <v>1.009242778042182</v>
+        <v>1.000027026851259</v>
       </c>
       <c r="T10">
-        <v>1.003796408666334</v>
+        <v>1.000006636786918</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002986406072913</v>
+        <v>0.9979669448376045</v>
       </c>
       <c r="D11">
-        <v>0.9947129705674862</v>
+        <v>1.00465459670126</v>
       </c>
       <c r="E11">
-        <v>1.005736206181714</v>
+        <v>0.9942627633005213</v>
       </c>
       <c r="F11">
-        <v>1.002434072735681</v>
+        <v>0.9978886512659014</v>
       </c>
       <c r="G11">
-        <v>1.002206769391763</v>
+        <v>0.9978564328247085</v>
       </c>
       <c r="H11">
-        <v>0.990059161224894</v>
+        <v>1.008416400787871</v>
       </c>
       <c r="I11">
-        <v>0.990059161224894</v>
+        <v>1.008416400787871</v>
       </c>
       <c r="J11">
-        <v>1.002986406072913</v>
+        <v>0.9979669448376045</v>
       </c>
       <c r="K11">
-        <v>1.002986406072913</v>
+        <v>0.9979669448376045</v>
       </c>
       <c r="L11">
-        <v>1.002206769391763</v>
+        <v>0.9978564328247085</v>
       </c>
       <c r="M11">
-        <v>0.9961329653083286</v>
+        <v>1.00313641680629</v>
       </c>
       <c r="N11">
-        <v>0.9961329653083286</v>
+        <v>1.00313641680629</v>
       </c>
       <c r="O11">
-        <v>0.9956596337280478</v>
+        <v>1.00364247677128</v>
       </c>
       <c r="P11">
-        <v>0.9984174455631902</v>
+        <v>1.001413259483395</v>
       </c>
       <c r="Q11">
-        <v>0.9984174455631901</v>
+        <v>1.001413259483395</v>
       </c>
       <c r="R11">
-        <v>0.9995596856906209</v>
+        <v>1.000551680821947</v>
       </c>
       <c r="S11">
-        <v>0.9995596856906209</v>
+        <v>1.000551680821947</v>
       </c>
       <c r="T11">
-        <v>0.9996892643624088</v>
+        <v>1.000174298286311</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9878664923052647</v>
+        <v>0.9589756628391896</v>
       </c>
       <c r="D12">
-        <v>1.025348232526314</v>
+        <v>1.086008729630677</v>
       </c>
       <c r="E12">
-        <v>0.9699798961473693</v>
+        <v>0.8979712748266713</v>
       </c>
       <c r="F12">
-        <v>0.9884457038315799</v>
+        <v>0.960802998211118</v>
       </c>
       <c r="G12">
-        <v>0.9886840632842128</v>
+        <v>0.9615549879201738</v>
       </c>
       <c r="H12">
-        <v>1.046431707842103</v>
+        <v>1.157464798570174</v>
       </c>
       <c r="I12">
-        <v>1.046431707842103</v>
+        <v>1.157464798570174</v>
       </c>
       <c r="J12">
-        <v>0.9878664923052647</v>
+        <v>0.9589756628391896</v>
       </c>
       <c r="K12">
-        <v>0.9878664923052647</v>
+        <v>0.9589756628391896</v>
       </c>
       <c r="L12">
-        <v>0.9886840632842128</v>
+        <v>0.9615549879201738</v>
       </c>
       <c r="M12">
-        <v>1.017557885563158</v>
+        <v>1.059509893245174</v>
       </c>
       <c r="N12">
-        <v>1.017557885563158</v>
+        <v>1.059509893245174</v>
       </c>
       <c r="O12">
-        <v>1.02015466788421</v>
+        <v>1.068342838707008</v>
       </c>
       <c r="P12">
-        <v>1.007660754477193</v>
+        <v>1.025998483109846</v>
       </c>
       <c r="Q12">
-        <v>1.007660754477193</v>
+        <v>1.025998483109846</v>
       </c>
       <c r="R12">
-        <v>1.002712188934211</v>
+        <v>1.009242778042182</v>
       </c>
       <c r="S12">
-        <v>1.002712188934211</v>
+        <v>1.009242778042182</v>
       </c>
       <c r="T12">
-        <v>1.001126015989474</v>
+        <v>1.003796408666334</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.007735345304012</v>
+        <v>1.002986406072913</v>
       </c>
       <c r="D13">
-        <v>0.9830956193855509</v>
+        <v>0.9947129705674862</v>
       </c>
       <c r="E13">
-        <v>1.020430754131393</v>
+        <v>1.005736206181714</v>
       </c>
       <c r="F13">
-        <v>1.007686538079082</v>
+        <v>1.002434072735681</v>
       </c>
       <c r="G13">
-        <v>1.007666454226978</v>
+        <v>1.002206769391763</v>
       </c>
       <c r="H13">
-        <v>0.9692357721763302</v>
+        <v>0.990059161224894</v>
       </c>
       <c r="I13">
-        <v>0.9692357721763302</v>
+        <v>0.990059161224894</v>
       </c>
       <c r="J13">
-        <v>1.007735345304012</v>
+        <v>1.002986406072913</v>
       </c>
       <c r="K13">
-        <v>1.007735345304012</v>
+        <v>1.002986406072913</v>
       </c>
       <c r="L13">
-        <v>1.007666454226978</v>
+        <v>1.002206769391763</v>
       </c>
       <c r="M13">
-        <v>0.988451113201654</v>
+        <v>0.9961329653083286</v>
       </c>
       <c r="N13">
-        <v>0.988451113201654</v>
+        <v>0.9961329653083286</v>
       </c>
       <c r="O13">
-        <v>0.9866659485962863</v>
+        <v>0.9956596337280478</v>
       </c>
       <c r="P13">
-        <v>0.9948791905691067</v>
+        <v>0.9984174455631902</v>
       </c>
       <c r="Q13">
-        <v>0.9948791905691067</v>
+        <v>0.9984174455631901</v>
       </c>
       <c r="R13">
-        <v>0.9980932292528331</v>
+        <v>0.9995596856906209</v>
       </c>
       <c r="S13">
-        <v>0.9980932292528331</v>
+        <v>0.9995596856906209</v>
       </c>
       <c r="T13">
-        <v>0.9993084138838911</v>
+        <v>0.9996892643624088</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9290452899999994</v>
+        <v>0.9878664923052647</v>
       </c>
       <c r="D14">
-        <v>1.1486006</v>
+        <v>1.025348232526314</v>
       </c>
       <c r="E14">
-        <v>0.8238079400000013</v>
+        <v>0.9699798961473693</v>
       </c>
       <c r="F14">
-        <v>0.9322738400000001</v>
+        <v>0.9884457038315799</v>
       </c>
       <c r="G14">
-        <v>0.9336024600000015</v>
+        <v>0.9886840632842128</v>
       </c>
       <c r="H14">
-        <v>1.2721004</v>
+        <v>1.046431707842103</v>
       </c>
       <c r="I14">
-        <v>1.2721004</v>
+        <v>1.046431707842103</v>
       </c>
       <c r="J14">
-        <v>0.9290452899999994</v>
+        <v>0.9878664923052647</v>
       </c>
       <c r="K14">
-        <v>0.9290452899999994</v>
+        <v>0.9878664923052647</v>
       </c>
       <c r="L14">
-        <v>0.9336024600000015</v>
+        <v>0.9886840632842128</v>
       </c>
       <c r="M14">
-        <v>1.102851430000001</v>
+        <v>1.017557885563158</v>
       </c>
       <c r="N14">
-        <v>1.102851430000001</v>
+        <v>1.017557885563158</v>
       </c>
       <c r="O14">
-        <v>1.118101153333334</v>
+        <v>1.02015466788421</v>
       </c>
       <c r="P14">
-        <v>1.04491605</v>
+        <v>1.007660754477193</v>
       </c>
       <c r="Q14">
-        <v>1.04491605</v>
+        <v>1.007660754477193</v>
       </c>
       <c r="R14">
-        <v>1.01594836</v>
+        <v>1.002712188934211</v>
       </c>
       <c r="S14">
-        <v>1.01594836</v>
+        <v>1.002712188934211</v>
       </c>
       <c r="T14">
-        <v>1.006571755</v>
+        <v>1.001126015989474</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0396018</v>
+        <v>1.007735345304012</v>
       </c>
       <c r="D15">
-        <v>0.94244704</v>
+        <v>0.9830956193855509</v>
       </c>
       <c r="E15">
-        <v>1.0542662</v>
+        <v>1.020430754131393</v>
       </c>
       <c r="F15">
-        <v>1.0268719</v>
+        <v>1.007686538079082</v>
       </c>
       <c r="G15">
-        <v>1.0216333</v>
+        <v>1.007666454226978</v>
       </c>
       <c r="H15">
-        <v>0.88779747</v>
+        <v>0.9692357721763302</v>
       </c>
       <c r="I15">
-        <v>0.88779747</v>
+        <v>0.9692357721763302</v>
       </c>
       <c r="J15">
-        <v>1.0396018</v>
+        <v>1.007735345304012</v>
       </c>
       <c r="K15">
-        <v>1.0396018</v>
+        <v>1.007735345304012</v>
       </c>
       <c r="L15">
-        <v>1.0216333</v>
+        <v>1.007666454226978</v>
       </c>
       <c r="M15">
-        <v>0.954715385</v>
+        <v>0.988451113201654</v>
       </c>
       <c r="N15">
-        <v>0.954715385</v>
+        <v>0.988451113201654</v>
       </c>
       <c r="O15">
-        <v>0.9506259366666666</v>
+        <v>0.9866659485962863</v>
       </c>
       <c r="P15">
-        <v>0.9830108566666667</v>
+        <v>0.9948791905691067</v>
       </c>
       <c r="Q15">
-        <v>0.9830108566666667</v>
+        <v>0.9948791905691067</v>
       </c>
       <c r="R15">
-        <v>0.9971585924999999</v>
+        <v>0.9980932292528331</v>
       </c>
       <c r="S15">
-        <v>0.9971585924999999</v>
+        <v>0.9980932292528331</v>
       </c>
       <c r="T15">
-        <v>0.9954362849999999</v>
+        <v>0.9993084138838911</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0441874</v>
+        <v>0.9290452899999994</v>
       </c>
       <c r="D16">
-        <v>0.9052794199999999</v>
+        <v>1.1486006</v>
       </c>
       <c r="E16">
-        <v>1.1135072</v>
+        <v>0.8238079400000013</v>
       </c>
       <c r="F16">
-        <v>1.0431148</v>
+        <v>0.9322738400000001</v>
       </c>
       <c r="G16">
-        <v>1.0426733</v>
+        <v>0.9336024600000015</v>
       </c>
       <c r="H16">
-        <v>0.82714368</v>
+        <v>1.2721004</v>
       </c>
       <c r="I16">
-        <v>0.82714368</v>
+        <v>1.2721004</v>
       </c>
       <c r="J16">
-        <v>1.0441874</v>
+        <v>0.9290452899999994</v>
       </c>
       <c r="K16">
-        <v>1.0441874</v>
+        <v>0.9290452899999994</v>
       </c>
       <c r="L16">
-        <v>1.0426733</v>
+        <v>0.9336024600000015</v>
       </c>
       <c r="M16">
-        <v>0.93490849</v>
+        <v>1.102851430000001</v>
       </c>
       <c r="N16">
-        <v>0.93490849</v>
+        <v>1.102851430000001</v>
       </c>
       <c r="O16">
-        <v>0.9250321333333332</v>
+        <v>1.118101153333334</v>
       </c>
       <c r="P16">
-        <v>0.9713347933333333</v>
+        <v>1.04491605</v>
       </c>
       <c r="Q16">
-        <v>0.9713347933333333</v>
+        <v>1.04491605</v>
       </c>
       <c r="R16">
-        <v>0.989547945</v>
+        <v>1.01594836</v>
       </c>
       <c r="S16">
-        <v>0.989547945</v>
+        <v>1.01594836</v>
       </c>
       <c r="T16">
-        <v>0.9959842999999999</v>
+        <v>1.006571755</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0446187</v>
+        <v>1.0396018</v>
       </c>
       <c r="D17">
-        <v>0.8937707400000001</v>
+        <v>0.94244704</v>
       </c>
       <c r="E17">
-        <v>1.1329903</v>
+        <v>1.0542662</v>
       </c>
       <c r="F17">
-        <v>1.0480919</v>
+        <v>1.0268719</v>
       </c>
       <c r="G17">
-        <v>1.0495212</v>
+        <v>1.0216333</v>
       </c>
       <c r="H17">
-        <v>0.80891874</v>
+        <v>0.88779747</v>
       </c>
       <c r="I17">
-        <v>0.80891874</v>
+        <v>0.88779747</v>
       </c>
       <c r="J17">
-        <v>1.0446187</v>
+        <v>1.0396018</v>
       </c>
       <c r="K17">
-        <v>1.0446187</v>
+        <v>1.0396018</v>
       </c>
       <c r="L17">
-        <v>1.0495212</v>
+        <v>1.0216333</v>
       </c>
       <c r="M17">
-        <v>0.92921997</v>
+        <v>0.954715385</v>
       </c>
       <c r="N17">
-        <v>0.92921997</v>
+        <v>0.954715385</v>
       </c>
       <c r="O17">
-        <v>0.91740356</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P17">
-        <v>0.9676862133333334</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q17">
-        <v>0.9676862133333334</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R17">
-        <v>0.9869193350000001</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S17">
-        <v>0.9869193350000001</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T17">
-        <v>0.9963185966666667</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9766466646575338</v>
+        <v>1.0441874</v>
       </c>
       <c r="D18">
-        <v>1.054093989589042</v>
+        <v>0.9052794199999999</v>
       </c>
       <c r="E18">
-        <v>0.9330080180821918</v>
+        <v>1.1135072</v>
       </c>
       <c r="F18">
-        <v>0.9754771931506846</v>
+        <v>1.0431148</v>
       </c>
       <c r="G18">
-        <v>0.9749959169863011</v>
+        <v>1.0426733</v>
       </c>
       <c r="H18">
-        <v>1.097658108082192</v>
+        <v>0.82714368</v>
       </c>
       <c r="I18">
-        <v>1.097658108082192</v>
+        <v>0.82714368</v>
       </c>
       <c r="J18">
-        <v>0.9766466646575338</v>
+        <v>1.0441874</v>
       </c>
       <c r="K18">
-        <v>0.9766466646575338</v>
+        <v>1.0441874</v>
       </c>
       <c r="L18">
-        <v>0.9749959169863011</v>
+        <v>1.0426733</v>
       </c>
       <c r="M18">
-        <v>1.036327012534247</v>
+        <v>0.93490849</v>
       </c>
       <c r="N18">
-        <v>1.036327012534247</v>
+        <v>0.93490849</v>
       </c>
       <c r="O18">
-        <v>1.042249338219178</v>
+        <v>0.9250321333333332</v>
       </c>
       <c r="P18">
-        <v>1.016433563242009</v>
+        <v>0.9713347933333333</v>
       </c>
       <c r="Q18">
-        <v>1.016433563242009</v>
+        <v>0.9713347933333333</v>
       </c>
       <c r="R18">
-        <v>1.00648683859589</v>
+        <v>0.989547945</v>
       </c>
       <c r="S18">
-        <v>1.00648683859589</v>
+        <v>0.989547945</v>
       </c>
       <c r="T18">
-        <v>1.001979981757991</v>
+        <v>0.9959842999999999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004473282105263</v>
+        <v>1.0446187</v>
       </c>
       <c r="D19">
-        <v>0.9812723899999998</v>
+        <v>0.8937707400000001</v>
       </c>
       <c r="E19">
-        <v>1.027356517894737</v>
+        <v>1.1329903</v>
       </c>
       <c r="F19">
-        <v>1.008298746842105</v>
+        <v>1.0480919</v>
       </c>
       <c r="G19">
-        <v>1.00987299631579</v>
+        <v>1.0495212</v>
       </c>
       <c r="H19">
-        <v>0.9682218842105264</v>
+        <v>0.80891874</v>
       </c>
       <c r="I19">
-        <v>0.9682218842105264</v>
+        <v>0.80891874</v>
       </c>
       <c r="J19">
-        <v>1.004473282105263</v>
+        <v>1.0446187</v>
       </c>
       <c r="K19">
-        <v>1.004473282105263</v>
+        <v>1.0446187</v>
       </c>
       <c r="L19">
-        <v>1.00987299631579</v>
+        <v>1.0495212</v>
       </c>
       <c r="M19">
-        <v>0.9890474402631579</v>
+        <v>0.92921997</v>
       </c>
       <c r="N19">
-        <v>0.9890474402631579</v>
+        <v>0.92921997</v>
       </c>
       <c r="O19">
-        <v>0.9864557568421052</v>
+        <v>0.91740356</v>
       </c>
       <c r="P19">
-        <v>0.9941893875438597</v>
+        <v>0.9676862133333334</v>
       </c>
       <c r="Q19">
-        <v>0.9941893875438597</v>
+        <v>0.9676862133333334</v>
       </c>
       <c r="R19">
-        <v>0.9967603611842106</v>
+        <v>0.9869193350000001</v>
       </c>
       <c r="S19">
-        <v>0.9967603611842106</v>
+        <v>0.9869193350000001</v>
       </c>
       <c r="T19">
-        <v>0.9999159695614036</v>
+        <v>0.9963185966666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.014123868421053</v>
+        <v>0.9766466646575338</v>
       </c>
       <c r="D20">
-        <v>0.9687706178947367</v>
+        <v>1.054093989589042</v>
       </c>
       <c r="E20">
-        <v>1.037935995789474</v>
+        <v>0.9330080180821918</v>
       </c>
       <c r="F20">
-        <v>1.014191411578948</v>
+        <v>0.9754771931506846</v>
       </c>
       <c r="G20">
-        <v>1.014219183157895</v>
+        <v>0.9749959169863011</v>
       </c>
       <c r="H20">
-        <v>0.9432594063157896</v>
+        <v>1.097658108082192</v>
       </c>
       <c r="I20">
-        <v>0.9432594063157896</v>
+        <v>1.097658108082192</v>
       </c>
       <c r="J20">
-        <v>1.014123868421053</v>
+        <v>0.9766466646575338</v>
       </c>
       <c r="K20">
-        <v>1.014123868421053</v>
+        <v>0.9766466646575338</v>
       </c>
       <c r="L20">
-        <v>1.014219183157895</v>
+        <v>0.9749959169863011</v>
       </c>
       <c r="M20">
-        <v>0.9787392947368423</v>
+        <v>1.036327012534247</v>
       </c>
       <c r="N20">
-        <v>0.9787392947368423</v>
+        <v>1.036327012534247</v>
       </c>
       <c r="O20">
-        <v>0.9754164024561405</v>
+        <v>1.042249338219178</v>
       </c>
       <c r="P20">
-        <v>0.9905341526315791</v>
+        <v>1.016433563242009</v>
       </c>
       <c r="Q20">
-        <v>0.9905341526315791</v>
+        <v>1.016433563242009</v>
       </c>
       <c r="R20">
-        <v>0.9964315815789474</v>
+        <v>1.00648683859589</v>
       </c>
       <c r="S20">
-        <v>0.9964315815789474</v>
+        <v>1.00648683859589</v>
       </c>
       <c r="T20">
-        <v>0.998750080526316</v>
+        <v>1.001979981757991</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.001149827931247</v>
+        <v>1.004473282105263</v>
       </c>
       <c r="D21">
-        <v>0.987349171708401</v>
+        <v>0.9812723899999998</v>
       </c>
       <c r="E21">
-        <v>1.020637758745816</v>
+        <v>1.027356517894737</v>
       </c>
       <c r="F21">
-        <v>1.005506844619889</v>
+        <v>1.008298746842105</v>
       </c>
       <c r="G21">
-        <v>1.007299872711343</v>
+        <v>1.00987299631579</v>
       </c>
       <c r="H21">
-        <v>0.9795863095937261</v>
+        <v>0.9682218842105264</v>
       </c>
       <c r="I21">
-        <v>0.9795863095937261</v>
+        <v>0.9682218842105264</v>
       </c>
       <c r="J21">
-        <v>1.001149827931247</v>
+        <v>1.004473282105263</v>
       </c>
       <c r="K21">
-        <v>1.001149827931247</v>
+        <v>1.004473282105263</v>
       </c>
       <c r="L21">
-        <v>1.007299872711343</v>
+        <v>1.00987299631579</v>
       </c>
       <c r="M21">
-        <v>0.9934430911525346</v>
+        <v>0.9890474402631579</v>
       </c>
       <c r="N21">
-        <v>0.9934430911525346</v>
+        <v>0.9890474402631579</v>
       </c>
       <c r="O21">
-        <v>0.9914117846711568</v>
+        <v>0.9864557568421052</v>
       </c>
       <c r="P21">
-        <v>0.9960120034121053</v>
+        <v>0.9941893875438597</v>
       </c>
       <c r="Q21">
-        <v>0.9960120034121053</v>
+        <v>0.9941893875438597</v>
       </c>
       <c r="R21">
-        <v>0.9972964595418906</v>
+        <v>0.9967603611842106</v>
       </c>
       <c r="S21">
-        <v>0.9972964595418906</v>
+        <v>0.9967603611842106</v>
       </c>
       <c r="T21">
-        <v>1.000254964218404</v>
+        <v>0.9999159695614036</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.003363385039278</v>
+        <v>1.014123868421053</v>
       </c>
       <c r="D22">
-        <v>0.9967662297887192</v>
+        <v>0.9687706178947367</v>
       </c>
       <c r="E22">
-        <v>1.001736962037465</v>
+        <v>1.037935995789474</v>
       </c>
       <c r="F22">
-        <v>1.001570122837781</v>
+        <v>1.014191411578948</v>
       </c>
       <c r="G22">
-        <v>1.000832161027932</v>
+        <v>1.014219183157895</v>
       </c>
       <c r="H22">
-        <v>0.993055330481905</v>
+        <v>0.9432594063157896</v>
       </c>
       <c r="I22">
-        <v>0.993055330481905</v>
+        <v>0.9432594063157896</v>
       </c>
       <c r="J22">
-        <v>1.003363385039278</v>
+        <v>1.014123868421053</v>
       </c>
       <c r="K22">
-        <v>1.003363385039278</v>
+        <v>1.014123868421053</v>
       </c>
       <c r="L22">
-        <v>1.000832161027932</v>
+        <v>1.014219183157895</v>
       </c>
       <c r="M22">
-        <v>0.9969437457549183</v>
+        <v>0.9787392947368423</v>
       </c>
       <c r="N22">
-        <v>0.9969437457549183</v>
+        <v>0.9787392947368423</v>
       </c>
       <c r="O22">
-        <v>0.9968845737661853</v>
+        <v>0.9754164024561405</v>
       </c>
       <c r="P22">
-        <v>0.9990836255163714</v>
+        <v>0.9905341526315791</v>
       </c>
       <c r="Q22">
-        <v>0.9990836255163714</v>
+        <v>0.9905341526315791</v>
       </c>
       <c r="R22">
-        <v>1.000153565397098</v>
+        <v>0.9964315815789474</v>
       </c>
       <c r="S22">
-        <v>1.000153565397098</v>
+        <v>0.9964315815789474</v>
       </c>
       <c r="T22">
-        <v>0.9995540318688466</v>
+        <v>0.998750080526316</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.007053913979558</v>
+        <v>1.001149827931247</v>
       </c>
       <c r="D23">
-        <v>0.9915867832588804</v>
+        <v>0.987349171708401</v>
       </c>
       <c r="E23">
-        <v>1.00647468187152</v>
+        <v>1.020637758745816</v>
       </c>
       <c r="F23">
-        <v>1.003995147028768</v>
+        <v>1.005506844619889</v>
       </c>
       <c r="G23">
-        <v>1.002736407726977</v>
+        <v>1.007299872711343</v>
       </c>
       <c r="H23">
-        <v>0.9828865237868505</v>
+        <v>0.9795863095937261</v>
       </c>
       <c r="I23">
-        <v>0.9828865237868505</v>
+        <v>0.9795863095937261</v>
       </c>
       <c r="J23">
-        <v>1.007053913979558</v>
+        <v>1.001149827931247</v>
       </c>
       <c r="K23">
-        <v>1.007053913979558</v>
+        <v>1.001149827931247</v>
       </c>
       <c r="L23">
-        <v>1.002736407726977</v>
+        <v>1.007299872711343</v>
       </c>
       <c r="M23">
-        <v>0.9928114657569137</v>
+        <v>0.9934430911525346</v>
       </c>
       <c r="N23">
-        <v>0.9928114657569137</v>
+        <v>0.9934430911525346</v>
       </c>
       <c r="O23">
-        <v>0.9924032382575693</v>
+        <v>0.9914117846711568</v>
       </c>
       <c r="P23">
-        <v>0.997558948497795</v>
+        <v>0.9960120034121053</v>
       </c>
       <c r="Q23">
-        <v>0.997558948497795</v>
+        <v>0.9960120034121053</v>
       </c>
       <c r="R23">
-        <v>0.9999326898682357</v>
+        <v>0.9972964595418906</v>
       </c>
       <c r="S23">
-        <v>0.9999326898682357</v>
+        <v>0.9972964595418906</v>
       </c>
       <c r="T23">
-        <v>0.9991222429420921</v>
+        <v>1.000254964218404</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9995844805297162</v>
+        <v>1.003363385039278</v>
       </c>
       <c r="D24">
-        <v>0.997928791093718</v>
+        <v>0.9967662297887192</v>
       </c>
       <c r="E24">
-        <v>1.004074859443568</v>
+        <v>1.001736962037465</v>
       </c>
       <c r="F24">
-        <v>1.000869632053478</v>
+        <v>1.001570122837781</v>
       </c>
       <c r="G24">
-        <v>1.001398496851247</v>
+        <v>1.000832161027932</v>
       </c>
       <c r="H24">
-        <v>0.9969974653786208</v>
+        <v>0.993055330481905</v>
       </c>
       <c r="I24">
-        <v>0.9969974653786208</v>
+        <v>0.993055330481905</v>
       </c>
       <c r="J24">
-        <v>0.9995844805297162</v>
+        <v>1.003363385039278</v>
       </c>
       <c r="K24">
-        <v>0.9995844805297162</v>
+        <v>1.003363385039278</v>
       </c>
       <c r="L24">
-        <v>1.001398496851247</v>
+        <v>1.000832161027932</v>
       </c>
       <c r="M24">
-        <v>0.9991979811149341</v>
+        <v>0.9969437457549183</v>
       </c>
       <c r="N24">
-        <v>0.9991979811149341</v>
+        <v>0.9969437457549183</v>
       </c>
       <c r="O24">
-        <v>0.9987749177745288</v>
+        <v>0.9968845737661853</v>
       </c>
       <c r="P24">
-        <v>0.9993268142531947</v>
+        <v>0.9990836255163714</v>
       </c>
       <c r="Q24">
-        <v>0.9993268142531947</v>
+        <v>0.9990836255163714</v>
       </c>
       <c r="R24">
-        <v>0.9993912308223251</v>
+        <v>1.000153565397098</v>
       </c>
       <c r="S24">
-        <v>0.9993912308223251</v>
+        <v>1.000153565397098</v>
       </c>
       <c r="T24">
-        <v>1.000142287558391</v>
+        <v>0.9995540318688466</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.023315822938659</v>
+        <v>1.007053913979558</v>
       </c>
       <c r="D25">
-        <v>0.9515355780667115</v>
+        <v>0.9915867832588804</v>
       </c>
       <c r="E25">
-        <v>1.057261670907785</v>
+        <v>1.00647468187152</v>
       </c>
       <c r="F25">
-        <v>1.022097384447051</v>
+        <v>1.003995147028768</v>
       </c>
       <c r="G25">
-        <v>1.021595968807713</v>
+        <v>1.002736407726977</v>
       </c>
       <c r="H25">
-        <v>0.9111591865095895</v>
+        <v>0.9828865237868505</v>
       </c>
       <c r="I25">
-        <v>0.9111591865095895</v>
+        <v>0.9828865237868505</v>
       </c>
       <c r="J25">
-        <v>1.023315822938659</v>
+        <v>1.007053913979558</v>
       </c>
       <c r="K25">
-        <v>1.023315822938659</v>
+        <v>1.007053913979558</v>
       </c>
       <c r="L25">
-        <v>1.021595968807713</v>
+        <v>1.002736407726977</v>
       </c>
       <c r="M25">
-        <v>0.9663775776586512</v>
+        <v>0.9928114657569137</v>
       </c>
       <c r="N25">
-        <v>0.9663775776586512</v>
+        <v>0.9928114657569137</v>
       </c>
       <c r="O25">
-        <v>0.961430244461338</v>
+        <v>0.9924032382575693</v>
       </c>
       <c r="P25">
-        <v>0.9853569927519871</v>
+        <v>0.997558948497795</v>
       </c>
       <c r="Q25">
-        <v>0.9853569927519871</v>
+        <v>0.997558948497795</v>
       </c>
       <c r="R25">
-        <v>0.994846700298655</v>
+        <v>0.9999326898682357</v>
       </c>
       <c r="S25">
-        <v>0.994846700298655</v>
+        <v>0.9999326898682357</v>
       </c>
       <c r="T25">
-        <v>0.9978276019462514</v>
+        <v>0.9991222429420921</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.005237957265472</v>
+        <v>0.9995844805297162</v>
       </c>
       <c r="D26">
-        <v>0.9873266986581259</v>
+        <v>0.997928791093718</v>
       </c>
       <c r="E26">
-        <v>1.015964060856005</v>
+        <v>1.004074859443568</v>
       </c>
       <c r="F26">
-        <v>1.005732926950087</v>
+        <v>1.000869632053478</v>
       </c>
       <c r="G26">
-        <v>1.005936624577151</v>
+        <v>1.001398496851247</v>
       </c>
       <c r="H26">
-        <v>0.9772516159166301</v>
+        <v>0.9969974653786208</v>
       </c>
       <c r="I26">
-        <v>0.9772516159166301</v>
+        <v>0.9969974653786208</v>
       </c>
       <c r="J26">
-        <v>1.005237957265472</v>
+        <v>0.9995844805297162</v>
       </c>
       <c r="K26">
-        <v>1.005237957265472</v>
+        <v>0.9995844805297162</v>
       </c>
       <c r="L26">
-        <v>1.005936624577151</v>
+        <v>1.001398496851247</v>
       </c>
       <c r="M26">
-        <v>0.9915941202468908</v>
+        <v>0.9991979811149341</v>
       </c>
       <c r="N26">
-        <v>0.9915941202468908</v>
+        <v>0.9991979811149341</v>
       </c>
       <c r="O26">
-        <v>0.9901716463839692</v>
+        <v>0.9987749177745288</v>
       </c>
       <c r="P26">
-        <v>0.996142065919751</v>
+        <v>0.9993268142531947</v>
       </c>
       <c r="Q26">
-        <v>0.9961420659197512</v>
+        <v>0.9993268142531947</v>
       </c>
       <c r="R26">
-        <v>0.9984160387561813</v>
+        <v>0.9993912308223251</v>
       </c>
       <c r="S26">
-        <v>0.9984160387561813</v>
+        <v>0.9993912308223251</v>
       </c>
       <c r="T26">
-        <v>0.9995749807039119</v>
+        <v>1.000142287558391</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9960563408734219</v>
+        <v>1.023315822938659</v>
       </c>
       <c r="D27">
-        <v>1.008846949935105</v>
+        <v>0.9515355780667115</v>
       </c>
       <c r="E27">
-        <v>0.9891868533126243</v>
+        <v>1.057261670907785</v>
       </c>
       <c r="F27">
-        <v>0.9959827671935524</v>
+        <v>1.022097384447051</v>
       </c>
       <c r="G27">
-        <v>0.9959524877987912</v>
+        <v>1.021595968807713</v>
       </c>
       <c r="H27">
-        <v>1.016041687649432</v>
+        <v>0.9111591865095895</v>
       </c>
       <c r="I27">
-        <v>1.016041687649432</v>
+        <v>0.9111591865095895</v>
       </c>
       <c r="J27">
-        <v>0.9960563408734219</v>
+        <v>1.023315822938659</v>
       </c>
       <c r="K27">
-        <v>0.9960563408734219</v>
+        <v>1.023315822938659</v>
       </c>
       <c r="L27">
-        <v>0.9959524877987912</v>
+        <v>1.021595968807713</v>
       </c>
       <c r="M27">
-        <v>1.005997087724112</v>
+        <v>0.9663775776586512</v>
       </c>
       <c r="N27">
-        <v>1.005997087724112</v>
+        <v>0.9663775776586512</v>
       </c>
       <c r="O27">
-        <v>1.006947041794443</v>
+        <v>0.961430244461338</v>
       </c>
       <c r="P27">
-        <v>1.002683505440548</v>
+        <v>0.9853569927519871</v>
       </c>
       <c r="Q27">
-        <v>1.002683505440548</v>
+        <v>0.9853569927519871</v>
       </c>
       <c r="R27">
-        <v>1.001026714298767</v>
+        <v>0.994846700298655</v>
       </c>
       <c r="S27">
-        <v>1.001026714298767</v>
+        <v>0.994846700298655</v>
       </c>
       <c r="T27">
-        <v>1.000344514460488</v>
+        <v>0.9978276019462514</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.004182081149559</v>
+        <v>1.005237957265472</v>
       </c>
       <c r="D28">
-        <v>0.9897399343965236</v>
+        <v>0.9873266986581259</v>
       </c>
       <c r="E28">
-        <v>1.012991589203242</v>
+        <v>1.015964060856005</v>
       </c>
       <c r="F28">
-        <v>1.004638174053061</v>
+        <v>1.005732926950087</v>
       </c>
       <c r="G28">
-        <v>1.004825861387924</v>
+        <v>1.005936624577151</v>
       </c>
       <c r="H28">
-        <v>0.9816162301050174</v>
+        <v>0.9772516159166301</v>
       </c>
       <c r="I28">
-        <v>0.9816162301050174</v>
+        <v>0.9772516159166301</v>
       </c>
       <c r="J28">
-        <v>1.004182081149559</v>
+        <v>1.005237957265472</v>
       </c>
       <c r="K28">
-        <v>1.004182081149559</v>
+        <v>1.005237957265472</v>
       </c>
       <c r="L28">
-        <v>1.004825861387924</v>
+        <v>1.005936624577151</v>
       </c>
       <c r="M28">
-        <v>0.9932210457464707</v>
+        <v>0.9915941202468908</v>
       </c>
       <c r="N28">
-        <v>0.9932210457464707</v>
+        <v>0.9915941202468908</v>
       </c>
       <c r="O28">
-        <v>0.9920606752964884</v>
+        <v>0.9901716463839692</v>
       </c>
       <c r="P28">
-        <v>0.9968747242141668</v>
+        <v>0.996142065919751</v>
       </c>
       <c r="Q28">
-        <v>0.9968747242141669</v>
+        <v>0.9961420659197512</v>
       </c>
       <c r="R28">
-        <v>0.9987015634480149</v>
+        <v>0.9984160387561813</v>
       </c>
       <c r="S28">
-        <v>0.9987015634480149</v>
+        <v>0.9984160387561813</v>
       </c>
       <c r="T28">
-        <v>0.9996656450492211</v>
+        <v>0.9995749807039119</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9960563408734219</v>
+      </c>
+      <c r="D29">
+        <v>1.008846949935105</v>
+      </c>
+      <c r="E29">
+        <v>0.9891868533126243</v>
+      </c>
+      <c r="F29">
+        <v>0.9959827671935524</v>
+      </c>
+      <c r="G29">
+        <v>0.9959524877987912</v>
+      </c>
+      <c r="H29">
+        <v>1.016041687649432</v>
+      </c>
+      <c r="I29">
+        <v>1.016041687649432</v>
+      </c>
+      <c r="J29">
+        <v>0.9960563408734219</v>
+      </c>
+      <c r="K29">
+        <v>0.9960563408734219</v>
+      </c>
+      <c r="L29">
+        <v>0.9959524877987912</v>
+      </c>
+      <c r="M29">
+        <v>1.005997087724112</v>
+      </c>
+      <c r="N29">
+        <v>1.005997087724112</v>
+      </c>
+      <c r="O29">
+        <v>1.006947041794443</v>
+      </c>
+      <c r="P29">
+        <v>1.002683505440548</v>
+      </c>
+      <c r="Q29">
+        <v>1.002683505440548</v>
+      </c>
+      <c r="R29">
+        <v>1.001026714298767</v>
+      </c>
+      <c r="S29">
+        <v>1.001026714298767</v>
+      </c>
+      <c r="T29">
+        <v>1.000344514460488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.004182081149559</v>
+      </c>
+      <c r="D30">
+        <v>0.9897399343965236</v>
+      </c>
+      <c r="E30">
+        <v>1.012991589203242</v>
+      </c>
+      <c r="F30">
+        <v>1.004638174053061</v>
+      </c>
+      <c r="G30">
+        <v>1.004825861387924</v>
+      </c>
+      <c r="H30">
+        <v>0.9816162301050174</v>
+      </c>
+      <c r="I30">
+        <v>0.9816162301050174</v>
+      </c>
+      <c r="J30">
+        <v>1.004182081149559</v>
+      </c>
+      <c r="K30">
+        <v>1.004182081149559</v>
+      </c>
+      <c r="L30">
+        <v>1.004825861387924</v>
+      </c>
+      <c r="M30">
+        <v>0.9932210457464707</v>
+      </c>
+      <c r="N30">
+        <v>0.9932210457464707</v>
+      </c>
+      <c r="O30">
+        <v>0.9920606752964884</v>
+      </c>
+      <c r="P30">
+        <v>0.9968747242141668</v>
+      </c>
+      <c r="Q30">
+        <v>0.9968747242141669</v>
+      </c>
+      <c r="R30">
+        <v>0.9987015634480149</v>
+      </c>
+      <c r="S30">
+        <v>0.9987015634480149</v>
+      </c>
+      <c r="T30">
+        <v>0.9996656450492211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.016762678595791</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9629867537674265</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.044935426799107</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.01682092802839</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.01684490945776</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9327378078663585</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9327378078663585</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.016762678595791</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.016762678595791</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.01684490945776</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9747913586620593</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9747913586620593</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9708564903638485</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.98878179863997</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.98878179863997</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9957770186289252</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9957770186289252</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9985147507524722</v>
       </c>
     </row>
